--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>es6新特性</t>
   </si>
@@ -803,18 +808,16 @@
   <si>
     <t>2、增加滚轮事件，分量加载</t>
   </si>
+  <si>
+    <t>vue-router原理</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,359 +919,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1276,255 +948,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,117 +968,73 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1659,7 +1045,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1681,7 +1067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1723,7 +1109,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1765,7 +1151,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2070,35 +1456,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.2833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.975" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.475" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="2:7">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="2:4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" ht="14">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2108,8 +1494,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
+    <row r="4" spans="2:7" ht="14">
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +1512,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="2:7">
-      <c r="B5" s="4"/>
+    <row r="5" spans="2:7" ht="14">
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2144,8 +1530,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="72" customHeight="1" spans="2:7">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:7" ht="72" customHeight="1">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2164,14 +1550,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:7" ht="14">
+      <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2190,224 +1576,225 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:7" ht="14">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="35" customHeight="1" spans="2:7">
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="35" customHeight="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" ht="14">
+      <c r="B12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="46" customHeight="1" spans="2:7">
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="4" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="46" customHeight="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" ht="14">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="14">
+      <c r="B15" s="21"/>
+      <c r="C15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" ht="95" customHeight="1" spans="2:7">
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="95" customHeight="1">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" ht="59.25" spans="2:4">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="42">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="47" customHeight="1" spans="2:4">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:7" ht="47" customHeight="1">
+      <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="42" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+    <row r="19" spans="2:7" ht="45">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="64" customHeight="1" spans="2:6">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:7" ht="64" customHeight="1">
+      <c r="B20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="81" customHeight="1" spans="2:6">
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="2:7" ht="81" customHeight="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" ht="81" customHeight="1" spans="2:7">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:7" ht="81" customHeight="1">
+      <c r="B22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="130" customHeight="1" spans="2:6">
-      <c r="B23" s="5"/>
+    <row r="23" spans="2:7" ht="130" customHeight="1">
+      <c r="B23" s="22"/>
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4" t="s">
+    <row r="26" spans="2:7" ht="180" customHeight="1"/>
+    <row r="27" spans="2:7" ht="14">
+      <c r="B27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" ht="208" customHeight="1" spans="2:7">
-      <c r="B28" s="4"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" ht="57" customHeight="1" spans="2:7">
-      <c r="B29" s="5" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="2:7" ht="208" customHeight="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" ht="57" customHeight="1">
+      <c r="B29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" ht="43" customHeight="1" spans="2:7">
-      <c r="B30" s="18" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" ht="43" customHeight="1">
+      <c r="B30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" ht="58" customHeight="1" spans="3:6">
-      <c r="C31" s="19" t="s">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" ht="58" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2420,8 +1807,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="2:7" ht="14">
+      <c r="B32" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2440,17 +1827,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="100" customHeight="1" spans="2:7">
-      <c r="B33" s="18"/>
-      <c r="E33" s="12" t="s">
+    <row r="33" spans="2:7" ht="100" customHeight="1">
+      <c r="B33" s="21"/>
+      <c r="E33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:7" ht="14">
+      <c r="B34" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2469,17 +1856,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="13.5" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+    <row r="35" spans="2:7" ht="14">
+      <c r="B35" s="21"/>
+      <c r="C35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="93" spans="2:6">
-      <c r="B36" s="22" t="s">
+    <row r="36" spans="2:7" ht="84">
+      <c r="B36" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2488,26 +1875,26 @@
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="157.5" spans="2:7">
+    <row r="37" spans="2:7" ht="126">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" ht="45" spans="2:4">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
@@ -2518,13 +1905,13 @@
         <v>94</v>
       </c>
     </row>
+    <row r="39" spans="2:7" ht="42">
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2541,44 +1928,58 @@
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C27:G28"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>es6新特性</t>
   </si>
@@ -141,6 +136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>watch 侦听器 : 更多的是「观察」的作用,</t>
     </r>
     <r>
@@ -174,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -276,6 +283,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -296,6 +309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">getter </t>
     </r>
     <r>
@@ -346,6 +365,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">action </t>
     </r>
     <r>
@@ -439,6 +464,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>entry</t>
     </r>
     <r>
@@ -490,6 +522,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>output</t>
     </r>
     <r>
@@ -540,6 +579,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>loader</t>
     </r>
     <r>
@@ -572,6 +618,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>plugins</t>
     </r>
     <r>
@@ -613,6 +666,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>bundle</t>
     </r>
     <r>
@@ -764,6 +825,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>引用数据类型</t>
     </r>
     <r>
@@ -810,14 +878,22 @@
   </si>
   <si>
     <t>vue-router原理</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>vuex原理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,27 +996,351 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -948,13 +1348,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,15 +1606,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -997,6 +1639,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1012,29 +1660,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1045,7 +1722,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1067,15 +1744,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2281555" y="15937865"/>
-          <a:ext cx="7257415" cy="2640965"/>
+          <a:off x="2285365" y="14842490"/>
+          <a:ext cx="7259320" cy="2526665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,15 +1786,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2249170" y="13362305"/>
-          <a:ext cx="3076575" cy="1828800"/>
+          <a:off x="2252980" y="12266930"/>
+          <a:ext cx="3073400" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,15 +1828,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5563870" y="13354050"/>
-          <a:ext cx="4314825" cy="2466975"/>
+          <a:off x="5564505" y="12258675"/>
+          <a:ext cx="4319905" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,35 +2133,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="14">
-      <c r="B3" s="21" t="s">
+    <row r="3" ht="13.5" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1494,8 +2168,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14">
-      <c r="B4" s="21"/>
+    <row r="4" ht="13.5" spans="2:7">
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1512,8 +2186,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14">
-      <c r="B5" s="21"/>
+    <row r="5" ht="13.5" spans="2:7">
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1530,8 +2204,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="21" t="s">
+    <row r="6" ht="72" customHeight="1" spans="2:7">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1550,14 +2224,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="14">
-      <c r="B7" s="21"/>
+    <row r="7" ht="13.5" spans="2:3">
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1576,81 +2250,81 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14">
-      <c r="B10" s="21" t="s">
+    <row r="10" ht="13.5" spans="2:7">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="35" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" ht="14">
-      <c r="B12" s="21" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="2:7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="13.5" spans="2:7">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" ht="46" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="2:7" ht="14">
-      <c r="B14" s="21" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="46" customHeight="1" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="13.5" spans="2:7">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" ht="14">
-      <c r="B15" s="21"/>
-      <c r="C15" s="19" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="13.5" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="95" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="95" customHeight="1" spans="2:7">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="42">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="45" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1661,8 +2335,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="47" customHeight="1">
-      <c r="B18" s="21" t="s">
+    <row r="18" ht="47" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1672,8 +2346,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="45">
-      <c r="B19" s="21"/>
+    <row r="19" ht="42" spans="2:4">
+      <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
@@ -1681,8 +2355,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="64" customHeight="1">
-      <c r="B20" s="21" t="s">
+    <row r="20" ht="64" customHeight="1" spans="2:6">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1692,8 +2366,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="21"/>
+    <row r="21" ht="81" customHeight="1" spans="2:6">
+      <c r="B21" s="3"/>
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1707,8 +2381,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="81" customHeight="1">
-      <c r="B22" s="21" t="s">
+    <row r="22" ht="81" customHeight="1" spans="2:7">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1727,74 +2401,72 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="130" customHeight="1">
-      <c r="B23" s="22"/>
+    <row r="23" ht="130" customHeight="1" spans="3:6">
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7" ht="14">
-      <c r="B27" s="21" t="s">
+    <row r="26" ht="180" customHeight="1"/>
+    <row r="27" ht="13.5" spans="2:7">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7" ht="208" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7" ht="57" customHeight="1">
-      <c r="B29" s="4" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" ht="208" customHeight="1" spans="2:7">
+      <c r="B28" s="3"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" ht="57" customHeight="1" spans="2:7">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7" ht="43" customHeight="1">
-      <c r="B30" s="21" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="43" customHeight="1" spans="2:7">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" ht="58" customHeight="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="14" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="3:6">
+      <c r="C31" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1807,8 +2479,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14">
-      <c r="B32" s="21" t="s">
+    <row r="32" ht="13.5" spans="2:7">
+      <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1827,8 +2499,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="100" customHeight="1">
-      <c r="B33" s="21"/>
+    <row r="33" ht="100" customHeight="1" spans="2:7">
+      <c r="B33" s="3"/>
       <c r="E33" s="10" t="s">
         <v>75</v>
       </c>
@@ -1836,8 +2508,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14">
-      <c r="B34" s="21" t="s">
+    <row r="34" ht="13.5" spans="2:7">
+      <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1856,17 +2528,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="14">
-      <c r="B35" s="21"/>
-      <c r="C35" s="15" t="s">
+    <row r="35" ht="13.5" spans="2:4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="84">
-      <c r="B36" s="17" t="s">
+    <row r="36" ht="93" spans="2:6">
+      <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1875,26 +2547,26 @@
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="126">
+    <row r="37" ht="157.5" spans="2:7">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="2:7" ht="42">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" ht="45" spans="2:4">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
@@ -1905,13 +2577,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="42">
+    <row r="39" ht="45" spans="2:2">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1928,58 +2610,44 @@
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C27:G28"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -877,10 +877,10 @@
     <t>2、增加滚轮事件，分量加载</t>
   </si>
   <si>
-    <t>vue-router原理</t>
-  </si>
-  <si>
-    <t>vuex原理</t>
+    <t>如何在vue项目中实现按需加载</t>
+  </si>
+  <si>
+    <t>通过import(*)语句来控制加载时机，webpack内置了对于import(*)的解析，会将import(*)中引入的模块作为一个新的入口在生成一个chunk。 当代码执行到import(*)语句时，会去加载Chunk对应生成的文件。import()会返回一个Promise对象，所以为了让浏览器支持，需要事先注入Promise polyfill。</t>
   </si>
 </sst>
 </file>
@@ -995,6 +995,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1003,6 +1053,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1012,6 +1094,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,120 +1141,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -1155,187 +1155,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,17 +1349,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,50 +1378,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,8 +1400,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,10 +1454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,8 +1751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2285365" y="14842490"/>
-          <a:ext cx="7259320" cy="2526665"/>
+          <a:off x="2421890" y="14842490"/>
+          <a:ext cx="7257415" cy="2526665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,8 +1793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2252980" y="12266930"/>
-          <a:ext cx="3073400" cy="1828800"/>
+          <a:off x="2389505" y="12266930"/>
+          <a:ext cx="3076575" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,8 +1835,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5564505" y="12258675"/>
-          <a:ext cx="4319905" cy="2466975"/>
+          <a:off x="5704205" y="12258675"/>
+          <a:ext cx="4314825" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,21 +2139,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G40"/>
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.975" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.475" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2554,7 +2554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="157.5" spans="2:7">
+    <row r="37" ht="156" customHeight="1" spans="2:7">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2577,24 +2577,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" ht="45" spans="2:2">
+    <row r="39" ht="67.5" spans="2:7">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>es6新特性</t>
   </si>
@@ -882,18 +887,20 @@
   <si>
     <t>通过import(*)语句来控制加载时机，webpack内置了对于import(*)的解析，会将import(*)中引入的模块作为一个新的入口在生成一个chunk。 当代码执行到import(*)语句时，会去加载Chunk对应生成的文件。import()会返回一个Promise对象，所以为了让浏览器支持，需要事先注入Promise polyfill。</t>
   </si>
+  <si>
+    <t>v-for时为什么不建议用index索引</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>当以index为索引时，如果在中间插入一条新数据，原数据插入点后的项没变化但index会递增，在虚拟dom比较新旧差异时，diff算法发现本来后几项数据也有变化，也要重新渲染，就失去了虚拟dom上的性能优势，如果用每条数据对象的某个具有唯一性的id时，即时中间插入新的数据，后面的key没有变化得到了复用，也就利用了虚拟dom的优势</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,352 +1002,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1348,255 +1038,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,112 +1054,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1722,7 +1132,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1744,7 +1154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1786,7 +1196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1828,7 +1238,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2133,32 +1543,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:G39"/>
+      <selection activeCell="C40" sqref="C40:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.975" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.475" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="2:4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" ht="14">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2168,8 +1578,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="2:7">
-      <c r="B4" s="3"/>
+    <row r="4" spans="2:7" ht="14">
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +1596,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="2:7">
-      <c r="B5" s="3"/>
+    <row r="5" spans="2:7" ht="14">
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2204,8 +1614,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="72" customHeight="1" spans="2:7">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" ht="72" customHeight="1">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2224,8 +1634,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="2:3">
-      <c r="B7" s="3"/>
+    <row r="7" spans="2:7" ht="14">
+      <c r="B7" s="19"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2250,223 +1660,225 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="2:7">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:7" ht="14">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="35" customHeight="1" spans="2:7">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="13.5" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="35" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" ht="14">
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="46" customHeight="1" spans="2:7">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="13.5" spans="2:7">
-      <c r="B14" s="3" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:7" ht="46" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:7" ht="14">
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="13.5" spans="2:7">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" ht="14">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="95" customHeight="1" spans="2:7">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" ht="95" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="45" spans="2:4">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" ht="42">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="47" customHeight="1" spans="2:4">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:7" ht="47" customHeight="1">
+      <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="42" spans="2:4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="2:7" ht="45">
+      <c r="B19" s="19"/>
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="64" customHeight="1" spans="2:6">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:7" ht="64" customHeight="1">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="81" customHeight="1" spans="2:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="10" t="s">
+    <row r="21" spans="2:7" ht="81" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" ht="81" customHeight="1" spans="2:7">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:7" ht="81" customHeight="1">
+      <c r="B22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="130" customHeight="1" spans="3:6">
+    <row r="23" spans="2:7" ht="130" customHeight="1">
+      <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" ht="180" customHeight="1"/>
-    <row r="27" ht="13.5" spans="2:7">
-      <c r="B27" s="3" t="s">
+    <row r="26" spans="2:7" ht="180" customHeight="1"/>
+    <row r="27" spans="2:7" ht="14">
+      <c r="B27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" ht="208" customHeight="1" spans="2:7">
-      <c r="B28" s="3"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" ht="57" customHeight="1" spans="2:7">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" ht="208" customHeight="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="57" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="43" customHeight="1" spans="2:7">
-      <c r="B30" s="3" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" ht="43" customHeight="1">
+      <c r="B30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="58" customHeight="1" spans="3:6">
-      <c r="C31" s="16" t="s">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="58" customHeight="1">
+      <c r="B31" s="20"/>
+      <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2479,8 +1891,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" ht="13.5" spans="2:7">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:7" ht="14">
+      <c r="B32" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2499,17 +1911,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="100" customHeight="1" spans="2:7">
-      <c r="B33" s="3"/>
-      <c r="E33" s="10" t="s">
+    <row r="33" spans="2:7" ht="100" customHeight="1">
+      <c r="B33" s="19"/>
+      <c r="E33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" ht="13.5" spans="2:7">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:7" ht="14">
+      <c r="B34" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2528,17 +1940,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="13.5" spans="2:4">
-      <c r="B35" s="3"/>
-      <c r="C35" s="17" t="s">
+    <row r="35" spans="2:7" ht="14">
+      <c r="B35" s="19"/>
+      <c r="C35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="93" spans="2:6">
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="2:7" ht="84">
+      <c r="B36" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2547,26 +1959,26 @@
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="156" customHeight="1" spans="2:7">
+    <row r="37" spans="2:7" ht="156" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" ht="45" spans="2:4">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
@@ -2577,25 +1989,33 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" ht="67.5" spans="2:7">
+    <row r="39" spans="2:7" ht="42">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="2:7" ht="63">
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
+  <mergeCells count="23">
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="B3:B5"/>
@@ -2612,45 +2032,59 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C27:G28"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>es6新特性</t>
   </si>
@@ -137,36 +132,158 @@
     <t>vue watch和computed</t>
   </si>
   <si>
-    <t>computed 计算属性 : 依赖其它属性值,并且 computed 的值有缓存,只有它依赖的属性值发生改变</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <r>
+      <t xml:space="preserve">computed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>watch 侦听器 : 更多的是「观察」的作用,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无缓存性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖其它属性值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>,类似于某些数据的监听回调</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> computed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值有缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有它依赖的属性值发生改变</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">watch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侦听器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多的是「观察」的作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无缓存性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于某些数据的监听回调</t>
     </r>
   </si>
   <si>
@@ -176,21 +293,27 @@
     <t>动态路由</t>
   </si>
   <si>
-    <t>vue-router 有哪几种导航钩子</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">vue-router </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有哪几种导航钩子</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>在</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -199,7 +322,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -208,7 +331,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -217,7 +340,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -226,7 +349,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -235,7 +358,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -244,7 +367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -253,7 +376,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -262,7 +385,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -272,7 +395,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -288,43 +411,242 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>state、getter、mutation、action、module</t>
-    </r>
-  </si>
-  <si>
-    <t>vue 中 ajax 请求代码应该写在组件的methods中还是vuex 的action中</t>
-  </si>
-  <si>
-    <t>vuex 就是一个仓库，仓库里放了很多对象。其中 state 就是数据源存放地，对应于一般 vue 对象里面的 data</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
+      <t> state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mutation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ajax </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求代码应该写在组件的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中还是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vuex </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vuex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是一个仓库，仓库里放了很多对象。其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> state </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是数据源存放地，对应于一般</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> vue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象里面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> data</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">getter </t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -333,7 +655,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -342,7 +664,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -351,7 +673,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -360,7 +682,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -370,17 +692,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">action </t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -389,7 +705,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -398,7 +714,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -407,7 +723,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -416,7 +732,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -425,7 +741,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -434,7 +750,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -443,7 +759,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -453,7 +769,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -462,25 +778,56 @@
     </r>
   </si>
   <si>
-    <t>如果请求来的数据不是要被其他组件公用，仅仅在请求的组件内使用，就不需要放入 vuex 的 state 里</t>
+    <r>
+      <t>如果请求来的数据不是要被其他组件公用，仅仅在请求的组件内使用，就不需要放入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> vuex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> state </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
   </si>
   <si>
     <t>webpack</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>entry</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -489,7 +836,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -498,7 +845,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -507,7 +854,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -516,7 +863,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -527,18 +874,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>output</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -547,7 +887,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -556,7 +896,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -565,7 +905,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -574,7 +914,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -584,18 +924,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>loader</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -604,7 +937,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -613,7 +946,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -623,18 +956,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>plugins</t>
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -643,7 +969,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -652,7 +978,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <charset val="134"/>
@@ -661,7 +987,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -671,19 +997,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>bundle</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -695,7 +1013,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -705,7 +1023,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -717,7 +1035,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -727,7 +1045,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -802,10 +1120,86 @@
     <t>cors</t>
   </si>
   <si>
-    <t>是html5新引进的特性</t>
-  </si>
-  <si>
-    <t>服务器端对于CORS的支持，主要就是通过设置Access-Control-Allow-Origin来进行的。如果浏览器检测到相应的设置，就可以允许Ajax进行跨域的访问</t>
+    <r>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>html5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新引进的特性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>服务器端对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CORS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的支持，主要就是通过设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Allow-Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来进行的。如果浏览器检测到相应的设置，就可以允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ajax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行跨域的访问</t>
+    </r>
   </si>
   <si>
     <t>js数据类型</t>
@@ -830,23 +1224,70 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
+      <t>引用数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>引用数据类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
+      <t>(Object)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>：对象(Object)、数组(Array)、函数(Function)。</t>
+      <t>(Array)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Function)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -889,18 +1330,75 @@
   </si>
   <si>
     <t>v-for时为什么不建议用index索引</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当以index为索引时，如果在中间插入一条新数据，原数据插入点后的项没变化但index会递增，在虚拟dom比较新旧差异时，diff算法发现本来后几项数据也有变化，也要重新渲染，就失去了虚拟dom上的性能优势，如果用每条数据对象的某个具有唯一性的id时，即时中间插入新的数据，后面的key没有变化得到了复用，也就利用了虚拟dom的优势</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的深拷贝浅拷贝</t>
+  </si>
+  <si>
+    <t>浅拷贝</t>
+  </si>
+  <si>
+    <t>直接赋值</t>
+  </si>
+  <si>
+    <t>遍历拷贝</t>
+  </si>
+  <si>
+    <t>Object.assign</t>
+  </si>
+  <si>
+    <t>const simpleClonePerson = Object.assign({}, person)</t>
+  </si>
+  <si>
+    <t>const simpleClonePerson = {...person}</t>
+  </si>
+  <si>
+    <t>深拷贝</t>
+  </si>
+  <si>
+    <t>利用json</t>
+  </si>
+  <si>
+    <t>递归拷贝</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>clone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Person = JSON.parse(JSON.stringify(person))</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,75 +1415,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF303538"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF3E3E3E"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.25"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.5"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FF008080"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9.75"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -996,41 +1488,377 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="22.5"/>
+      <b/>
+      <sz val="13.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0086B3"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1038,13 +1866,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,11 +2124,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,29 +2148,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1096,32 +2187,61 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1132,7 +2252,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1144,7 +2264,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>146685</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2453005</xdr:rowOff>
+      <xdr:rowOff>2338705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1154,15 +2274,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2421890" y="14842490"/>
-          <a:ext cx="7257415" cy="2526665"/>
+          <a:off x="2425065" y="16522065"/>
+          <a:ext cx="7259320" cy="2526665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,15 +2316,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2389505" y="12266930"/>
-          <a:ext cx="3076575" cy="1828800"/>
+          <a:off x="2392680" y="13946505"/>
+          <a:ext cx="3073400" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1238,15 +2358,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5704205" y="12258675"/>
-          <a:ext cx="4314825" cy="2466975"/>
+          <a:off x="5704205" y="13938250"/>
+          <a:ext cx="4319905" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,100 +2663,100 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:G40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.8333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="14">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14">
-      <c r="B4" s="19"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14">
-      <c r="B5" s="19"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="19" t="s">
+    <row r="6" ht="72" customHeight="1" spans="2:7">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="14">
-      <c r="B7" s="19"/>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1644,155 +2764,155 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" ht="35" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" ht="14">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="51" customHeight="1" spans="2:7">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="2:7" ht="46" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="2:7" ht="14">
-      <c r="B14" s="19" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="46" customHeight="1" spans="2:7">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:7" ht="14">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" ht="95" customHeight="1">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" ht="95" customHeight="1" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" ht="42">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" ht="56.25" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="47" customHeight="1">
-      <c r="B18" s="19" t="s">
+    <row r="18" ht="47" customHeight="1" spans="2:4">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" ht="75" spans="2:4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="64" customHeight="1">
-      <c r="B20" s="19" t="s">
+    <row r="20" ht="64" customHeight="1" spans="2:6">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="8" t="s">
+    <row r="21" ht="81" customHeight="1" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="C21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="81" customHeight="1">
-      <c r="B22" s="19" t="s">
+    <row r="22" ht="81" customHeight="1" spans="2:7">
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1807,217 +2927,267 @@
       <c r="F22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="130" customHeight="1">
-      <c r="B23" s="20"/>
-      <c r="C23" s="1" t="s">
+    <row r="23" ht="130" customHeight="1" spans="3:6">
+      <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7" ht="14">
-      <c r="B27" s="19" t="s">
+    <row r="26" ht="180" customHeight="1"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:7" ht="208" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:7" ht="57" customHeight="1">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" ht="208" customHeight="1" spans="2:7">
+      <c r="B28" s="4"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" ht="57" customHeight="1" spans="2:7">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" ht="43" customHeight="1">
-      <c r="B30" s="19" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="43" customHeight="1" spans="2:7">
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" ht="58" customHeight="1">
-      <c r="B31" s="20"/>
-      <c r="C31" s="12" t="s">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="3:6">
+      <c r="C31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14">
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="100" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="E33" s="8" t="s">
+    <row r="33" ht="82" customHeight="1" spans="2:7">
+      <c r="B33" s="4"/>
+      <c r="E33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="14">
-      <c r="B35" s="19"/>
-      <c r="C35" s="13" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="84">
-      <c r="B36" s="15" t="s">
+    <row r="36" ht="54" customHeight="1" spans="2:6">
+      <c r="B36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="156" customHeight="1">
+    <row r="37" ht="126" customHeight="1" spans="2:7">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="2:7" ht="42">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" ht="45" spans="2:4">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="42">
+    <row r="39" ht="67.5" spans="2:7">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="2:7" ht="63">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" ht="67.5" spans="2:7">
       <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" ht="18.75" spans="2:7">
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" ht="48" spans="2:7">
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="F42" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" ht="24" spans="3:4">
+      <c r="C44" s="7"/>
+      <c r="D44" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C40:G40"/>
+  <mergeCells count="26">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
@@ -2030,61 +3200,50 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C27:G28"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t>es6新特性</t>
   </si>
@@ -1386,6 +1386,143 @@
       </rPr>
       <t>Person = JSON.parse(JSON.stringify(person))</t>
     </r>
+  </si>
+  <si>
+    <t>什么是saas系统</t>
+  </si>
+  <si>
+    <t>SaaS是Software-as-a-Service（软件即服务）的简称。
+像以前用的OA系统都是安装在企业的服务器中，数据存储在本地，通过局域网或者互联网进行访问。
+再举个简单的例子，一个企业想要用一套OA办公系统，云创就会给这家企业提供一个账号用以使用OA系统，至于OA系统的维护升级都是由云创来负责的，包括数据也都是保存在云创的服务器中。这家企业只需要享受所有OA系统中的服务就可以了。</t>
+  </si>
+  <si>
+    <t>vue按需加载</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vue异步组件技术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>es提案的import()</t>
+    </r>
+  </si>
+  <si>
+    <t>webpack提供的require.ensure()</t>
+  </si>
+  <si>
+    <t>vue-router配置路由，使用vue的异步组件技术，可以实现按需加载（懒加载）。 但是，这种情况下一个组件生成一个js文件。</t>
+  </si>
+  <si>
+    <r>
+      <t>推荐使用这种方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>webpack &gt; 2.4)
+webpack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官方文档：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>webpack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>import() vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官方文档：路由懒加载使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>import()</t>
+    </r>
+  </si>
+  <si>
+    <t>vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1535,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1638,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1661,6 +1810,12 @@
       <sz val="9"/>
       <color rgb="FF0086B3"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1972,10 +2127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1984,137 +2139,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2189,6 +2344,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2669,10 +2830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G44"/>
+  <dimension ref="B3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
@@ -3161,7 +3322,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="2:5">
+      <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
         <v>106</v>
       </c>
@@ -3172,14 +3334,64 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" ht="24" spans="3:4">
+    <row r="44" ht="24" spans="2:4">
+      <c r="B44" s="4"/>
       <c r="C44" s="7"/>
       <c r="D44" s="23" t="s">
         <v>109</v>
       </c>
     </row>
+    <row r="45" ht="13.5" spans="2:7">
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" ht="70" customHeight="1" spans="2:7">
+      <c r="B46" s="4"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" ht="35.25" spans="2:5">
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" ht="84.75" spans="2:5">
+      <c r="B48" s="4"/>
+      <c r="C48" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
@@ -3200,13 +3412,20 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C12:G13"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C27:G28"/>
+    <mergeCell ref="C45:G46"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C48" r:id="rId2" display="vue-router配置路由，使用vue的异步组件技术，可以实现按需加载（懒加载）。 但是，这种情况下一个组件生成一个js文件。" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
+    <hyperlink ref="E48" r:id="rId3" display="vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>es6新特性</t>
   </si>
@@ -1523,6 +1523,14 @@
   </si>
   <si>
     <t>vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件</t>
+  </si>
+  <si>
+    <t>为什么需要Virtual DOM</t>
+  </si>
+  <si>
+    <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重回,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
+其次,_x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
+最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2841,7 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="C49" sqref="C49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
@@ -3387,11 +3395,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="25"/>
+    <row r="49" ht="141" customHeight="1" spans="2:7">
+      <c r="B49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
@@ -3400,6 +3417,7 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>es6新特性</t>
   </si>
@@ -1528,22 +1533,64 @@
     <t>为什么需要Virtual DOM</t>
   </si>
   <si>
-    <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重回,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
-其次,_x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
+    <t>vue路由切换，各页面的生命周期是怎样的</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入A页开始
+A-beforeCreate
+A-created
+A-beforeMount
+A-mounted
+B-beforeCreate  (开始切换B页)
+B-created
+B-beforeMount
+A-beforeDestroy
+A-destroyed
+B-mounted
+重点理解：mounted是实例被挂载后调用，所以在B页即将挂载时，A页挂载被清除(被销毁)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue中data数据为什么return</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在vue中每个组件都是个vue实例，data数据放在函数里return出去，会有函数作用域，保证了每个组件的data数据作用域是在当前组件，不会与其他组件的共享.</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重绘,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
+其次,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marker Felt"/>
+      </rPr>
+      <t>_x0008_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
 最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,150 +1705,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF3E3E3E"/>
       <name val="宋体"/>
@@ -1826,202 +1729,27 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Marker Felt"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2029,255 +1757,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,9 +1776,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2301,9 +1784,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2322,15 +1802,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2359,58 +1830,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2421,7 +1863,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2443,7 +1885,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2485,7 +1927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2527,7 +1969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2832,100 +2274,100 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C49" sqref="C49:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.8333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.1666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" ht="17">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:7" ht="17">
+      <c r="B4" s="24"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="2:7" ht="17">
+      <c r="B5" s="24"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="72" customHeight="1" spans="2:7">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:7" ht="72" customHeight="1">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:7" ht="17">
+      <c r="B7" s="24"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2933,378 +2375,380 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:7" ht="14">
+      <c r="B10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="51" customHeight="1" spans="2:7">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" ht="51" customHeight="1">
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="2:7" ht="14">
+      <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="46" customHeight="1" spans="2:7">
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="4" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="2:7" ht="46" customHeight="1">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:7" ht="17">
+      <c r="B14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" ht="17">
+      <c r="B15" s="24"/>
+      <c r="C15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="95" customHeight="1" spans="2:7">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" ht="95" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="56.25" spans="2:4">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="51">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="47" customHeight="1" spans="2:4">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:7" ht="47" customHeight="1">
+      <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="75" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="2:7" ht="68">
+      <c r="B19" s="24"/>
+      <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="64" customHeight="1" spans="2:6">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:7" ht="64" customHeight="1">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="81" customHeight="1" spans="2:6">
-      <c r="B21" s="4"/>
-      <c r="C21" s="13" t="s">
+    <row r="21" spans="2:7" ht="81" customHeight="1">
+      <c r="B21" s="24"/>
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" ht="81" customHeight="1" spans="2:7">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:7" ht="81" customHeight="1">
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="130" customHeight="1" spans="3:6">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="2:7" ht="130" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4" t="s">
+    <row r="26" spans="2:7" ht="180" customHeight="1"/>
+    <row r="27" spans="2:7" ht="14">
+      <c r="B27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" ht="208" customHeight="1" spans="2:7">
-      <c r="B28" s="4"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" ht="57" customHeight="1" spans="2:7">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="2:7" ht="208" customHeight="1">
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="2:7" ht="57" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" ht="43" customHeight="1" spans="2:7">
-      <c r="B30" s="4" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" ht="43" customHeight="1">
+      <c r="B30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="58" customHeight="1" spans="3:6">
-      <c r="C31" s="18" t="s">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" ht="58" customHeight="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:7" ht="17">
+      <c r="B32" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="82" customHeight="1" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="E33" s="11" t="s">
+    <row r="33" spans="2:7" ht="82" customHeight="1">
+      <c r="B33" s="24"/>
+      <c r="E33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:7" ht="17">
+      <c r="B34" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="2:7" ht="17">
+      <c r="B35" s="24"/>
+      <c r="C35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="2:6">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="2:7" ht="54" customHeight="1">
+      <c r="B36" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="126" customHeight="1" spans="2:7">
+    <row r="37" spans="2:7" ht="126" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" ht="45" spans="2:4">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" ht="67.5" spans="2:7">
+    <row r="39" spans="2:7" ht="42">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" ht="67.5" spans="2:7">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="2:7" ht="63">
       <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" ht="18.75" spans="2:7">
-      <c r="B41" s="4" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:7" ht="17">
+      <c r="B41" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3313,26 +2757,26 @@
       <c r="E41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" ht="48" spans="2:7">
-      <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-      <c r="F42" s="23" t="s">
+    <row r="42" spans="2:7" ht="36">
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="F42" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
+    <row r="43" spans="2:7" ht="17">
+      <c r="B43" s="24"/>
+      <c r="C43" s="22" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3342,78 +2786,108 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" ht="24" spans="2:4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="23" t="s">
+    <row r="44" spans="2:7" ht="24">
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" ht="13.5" spans="2:7">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="2:7" ht="14">
+      <c r="B45" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" ht="70" customHeight="1" spans="2:7">
-      <c r="B46" s="4"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" ht="35.25" spans="2:5">
-      <c r="B47" s="4" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7" ht="70" customHeight="1">
+      <c r="B46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:7" ht="34">
+      <c r="B47" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" ht="84.75" spans="2:5">
-      <c r="B48" s="4"/>
-      <c r="C48" s="25" t="s">
+    <row r="48" spans="2:7" ht="78">
+      <c r="B48" s="24"/>
+      <c r="C48" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" ht="141" customHeight="1" spans="2:7">
+    <row r="49" spans="2:7" ht="141" customHeight="1">
       <c r="B49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" ht="221" customHeight="1">
+      <c r="B50" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="C50" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:7" ht="85" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
+  <mergeCells count="32">
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C27:G28"/>
+    <mergeCell ref="C45:G46"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
@@ -3430,57 +2904,62 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C27:G28"/>
-    <mergeCell ref="C45:G46"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId2" display="vue-router配置路由，使用vue的异步组件技术，可以实现按需加载（懒加载）。 但是，这种情况下一个组件生成一个js文件。" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
-    <hyperlink ref="E48" r:id="rId3" display="vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件"/>
+    <hyperlink ref="C48" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
+    <hyperlink ref="E48" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>es6新特性</t>
   </si>
@@ -138,25 +133,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">computed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算属性</t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> : </t>
+      <t xml:space="preserve">computed </t>
     </r>
     <r>
       <rPr>
@@ -165,7 +148,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>依赖其它属性值</t>
+      <t>计算属性</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +157,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve"> : </t>
     </r>
     <r>
       <rPr>
@@ -183,7 +166,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>并且</t>
+      <t>依赖其它属性值</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +175,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> computed </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +184,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>的值有缓存</t>
+      <t>并且</t>
     </r>
     <r>
       <rPr>
@@ -210,7 +193,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve"> computed </t>
     </r>
     <r>
       <rPr>
@@ -219,21 +202,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>只有它依赖的属性值发生改变</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">watch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>侦听器</t>
+      <t>的值有缓存</t>
     </r>
     <r>
       <rPr>
@@ -242,7 +211,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> : </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -251,8 +220,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>更多的是「观察」的作用</t>
-    </r>
+      <t>只有它依赖的属性值发生改变</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -260,17 +231,16 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无缓存性</t>
+      <t xml:space="preserve">watch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侦听器</t>
     </r>
     <r>
       <rPr>
@@ -279,12 +249,49 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多的是「观察」的作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无缓存性</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -299,6 +306,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vue-router </t>
     </r>
     <r>
@@ -314,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -416,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> state</t>
     </r>
     <r>
@@ -493,6 +519,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vue </t>
     </r>
     <r>
@@ -588,6 +621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vuex </t>
     </r>
     <r>
@@ -647,6 +686,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">getter </t>
     </r>
     <r>
@@ -697,6 +742,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">action </t>
     </r>
     <r>
@@ -784,6 +835,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果请求来的数据不是要被其他组件公用，仅仅在请求的组件内使用，就不需要放入</t>
     </r>
     <r>
@@ -828,6 +885,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>entry</t>
     </r>
     <r>
@@ -879,6 +943,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>output</t>
     </r>
     <r>
@@ -929,6 +1000,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>loader</t>
     </r>
     <r>
@@ -961,6 +1039,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>plugins</t>
     </r>
     <r>
@@ -1002,6 +1087,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>bundle</t>
     </r>
     <r>
@@ -1126,6 +1219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是</t>
     </r>
     <r>
@@ -1149,6 +1248,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务器端对于</t>
     </r>
     <r>
@@ -1229,6 +1334,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>引用数据类型</t>
     </r>
     <r>
@@ -1371,6 +1483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">const </t>
     </r>
     <r>
@@ -1405,9 +1523,6 @@
   </si>
   <si>
     <r>
-      <t> </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="13.5"/>
@@ -1415,11 +1530,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>vue异步组件技术</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t> </t>
     </r>
     <r>
@@ -1430,6 +1540,28 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>vue异步组件技术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>es提案的import()</t>
     </r>
   </si>
@@ -1441,6 +1573,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>推荐使用这种方式</t>
     </r>
     <r>
@@ -1530,11 +1668,73 @@
     <t>vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件</t>
   </si>
   <si>
+    <t xml:space="preserve">        {
+            path: '/promisedemo',
+            name: 'PromiseDemo',
+            component: 
+              resolve =&gt;  require(['../components/PromiseDemo'], resolve)
+        }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+const ImportFuncDemo1 = () =&gt; import('../components/ImportFuncDemo1')
+export default new Router({
+    routes: [
+        {
+            path: '/importfuncdemo1',
+            name: 'ImportFuncDemo1',
+            component: ImportFuncDemo1
+        }
+    ]
+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {
+            path: '/promisedemo',
+            name: 'PromiseDemo',
+            component: r =&gt; require.ensure([], () =&gt; r(require('../components/PromiseDemo')), 'demo')
+        }
+</t>
+  </si>
+  <si>
     <t>为什么需要Virtual DOM</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重绘,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
+其次,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marker Felt"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
+最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
+    </r>
+  </si>
+  <si>
     <t>vue路由切换，各页面的生命周期是怎样的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>进入A页开始
@@ -1549,48 +1749,25 @@
 A-destroyed
 B-mounted
 重点理解：mounted是实例被挂载后调用，所以在B页即将挂载时，A页挂载被清除(被销毁)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>vue中data数据为什么return</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>因为在vue中每个组件都是个vue实例，data数据放在函数里return出去，会有函数作用域，保证了每个组件的data数据作用域是在当前组件，不会与其他组件的共享.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重绘,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
-其次,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marker Felt"/>
-      </rPr>
-      <t>_x0008_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
-最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,6 +1882,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF3E3E3E"/>
       <name val="宋体"/>
@@ -1730,26 +2051,207 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Marker Felt"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1757,13 +2259,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1774,85 +2518,114 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1863,7 +2636,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1872,10 +2645,10 @@
       <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1232535</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2338705</xdr:rowOff>
+      <xdr:rowOff>2224405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1885,7 +2658,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1893,7 +2666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2425065" y="16522065"/>
-          <a:ext cx="7259320" cy="2526665"/>
+          <a:ext cx="7259320" cy="2412365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,7 +2688,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>360680</xdr:colOff>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1637030</xdr:rowOff>
     </xdr:to>
@@ -1927,7 +2700,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1956,8 +2729,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486410</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1927860</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>2266950</xdr:rowOff>
     </xdr:to>
@@ -1969,14 +2742,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5704205" y="13938250"/>
+          <a:off x="6059805" y="13938250"/>
           <a:ext cx="4319905" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2274,100 +3047,100 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17">
-      <c r="B4" s="24"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="24"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="24" t="s">
+    <row r="6" ht="72" customHeight="1" spans="2:7">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="24"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2375,304 +3148,274 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="2:7" ht="51" customHeight="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:7" ht="14">
-      <c r="B12" s="24" t="s">
+    </row>
+    <row r="11" ht="51" customHeight="1" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="2:7" ht="46" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" ht="17">
-      <c r="B14" s="24" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="46" customHeight="1" spans="2:7">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="2:7" ht="17">
-      <c r="B15" s="24"/>
-      <c r="C15" s="22" t="s">
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="2:7" ht="95" customHeight="1">
+    </row>
+    <row r="16" ht="95" customHeight="1" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="2:7" ht="51">
+    </row>
+    <row r="17" ht="56.25" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="47" customHeight="1">
-      <c r="B18" s="24" t="s">
+    <row r="18" ht="47" customHeight="1" spans="2:4">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="68">
-      <c r="B19" s="24"/>
-      <c r="C19" s="9" t="s">
+    <row r="19" ht="75" spans="2:4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="64" customHeight="1">
-      <c r="B20" s="24" t="s">
+    <row r="20" ht="64" customHeight="1" spans="2:6">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" ht="81" customHeight="1" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="81" customHeight="1">
-      <c r="B22" s="24" t="s">
+    <row r="22" ht="81" customHeight="1" spans="2:7">
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="130" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="4" t="s">
+    <row r="23" ht="130" customHeight="1" spans="3:4">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="25" spans="2:7">
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7" ht="14">
-      <c r="B27" s="24" t="s">
+    <row r="26" ht="180" customHeight="1"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="2:7" ht="208" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="2:7" ht="57" customHeight="1">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" ht="208" customHeight="1" spans="2:7">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="57" customHeight="1" spans="2:3">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:7" ht="43" customHeight="1">
-      <c r="B30" s="24" t="s">
+    </row>
+    <row r="30" ht="43" customHeight="1" spans="2:6">
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" ht="58" customHeight="1">
-      <c r="B31" s="25"/>
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="3:6">
       <c r="C31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="82" customHeight="1">
-      <c r="B33" s="24"/>
-      <c r="E33" s="9" t="s">
+    <row r="33" ht="96" customHeight="1" spans="2:7">
+      <c r="B33" s="4"/>
+      <c r="E33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="17">
-      <c r="B35" s="24"/>
+    <row r="35" ht="37.5" spans="2:4">
+      <c r="B35" s="4"/>
       <c r="C35" s="14" t="s">
         <v>83</v>
       </c>
@@ -2680,75 +3423,63 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="54" customHeight="1">
+    <row r="36" ht="54" customHeight="1" spans="2:6">
       <c r="B36" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="126" customHeight="1">
+    <row r="37" ht="126" customHeight="1" spans="2:3">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="2:7" ht="42">
+    </row>
+    <row r="38" ht="45" spans="2:4">
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="42">
+    <row r="39" ht="67.5" spans="2:3">
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" ht="63">
+    </row>
+    <row r="40" ht="67.5" spans="2:3">
       <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:7" ht="17">
-      <c r="B41" s="24" t="s">
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2764,9 +3495,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="36">
-      <c r="B42" s="24"/>
-      <c r="C42" s="22"/>
+    <row r="42" ht="48" spans="2:7">
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
       <c r="F42" s="18" t="s">
         <v>104</v>
       </c>
@@ -2774,9 +3505,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="17">
-      <c r="B43" s="24"/>
-      <c r="C43" s="22" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="4"/>
+      <c r="C43" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2786,35 +3517,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="24">
-      <c r="B44" s="24"/>
-      <c r="C44" s="22"/>
+    <row r="44" ht="24" spans="2:4">
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="14">
-      <c r="B45" s="24" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="2:7" ht="70" customHeight="1">
-      <c r="B46" s="24"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" ht="34">
-      <c r="B47" s="24" t="s">
+    </row>
+    <row r="46" ht="70" customHeight="1" spans="2:2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -2827,8 +3549,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="78">
-      <c r="B48" s="24"/>
+    <row r="48" ht="56.25" spans="2:5">
+      <c r="B48" s="4"/>
       <c r="C48" s="20" t="s">
         <v>116</v>
       </c>
@@ -2839,59 +3561,55 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="141" customHeight="1">
-      <c r="B49" s="2" t="s">
+    <row r="49" ht="175.5" spans="2:5">
+      <c r="B49" s="4"/>
+      <c r="C49" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="D49" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" ht="141" customHeight="1" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" ht="221" customHeight="1" spans="2:3">
+      <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="2:7" ht="221" customHeight="1">
-      <c r="B50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" ht="85" customHeight="1">
-      <c r="B51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="C51" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" ht="85" customHeight="1" spans="2:3">
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C27:G28"/>
-    <mergeCell ref="C45:G46"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
@@ -2904,62 +3622,57 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C27:G28"/>
+    <mergeCell ref="C45:G46"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
-    <hyperlink ref="E48" r:id="rId2"/>
+    <hyperlink ref="C48" r:id="rId2" display="vue-router配置路由，使用vue的异步组件技术，可以实现按需加载（懒加载）。 但是，这种情况下一个组件生成一个js文件。" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
+    <hyperlink ref="E48" r:id="rId3" display="vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>es6新特性</t>
   </si>
@@ -137,7 +142,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">computed </t>
     </r>
@@ -146,6 +151,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>计算属性</t>
@@ -155,7 +161,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -164,6 +170,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>依赖其它属性值</t>
@@ -173,7 +180,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -182,6 +189,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>并且</t>
@@ -191,7 +199,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> computed </t>
     </r>
@@ -200,6 +208,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的值有缓存</t>
@@ -209,7 +218,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -218,6 +227,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>只有它依赖的属性值发生改变</t>
@@ -229,7 +239,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">watch </t>
     </r>
@@ -238,6 +248,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>侦听器</t>
@@ -247,7 +258,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -256,6 +267,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>更多的是「观察」的作用</t>
@@ -265,7 +277,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -275,6 +287,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>无缓存性</t>
@@ -284,7 +297,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -293,6 +306,7 @@
         <sz val="14"/>
         <color rgb="FF3E3E3E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类似于某些数据的监听回调</t>
@@ -311,7 +325,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">vue-router </t>
     </r>
@@ -321,6 +335,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有哪几种导航钩子</t>
@@ -332,6 +347,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -341,7 +357,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> router </t>
     </r>
@@ -350,6 +366,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>目录下的</t>
@@ -359,7 +376,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> index.js </t>
     </r>
@@ -368,6 +385,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件中，对</t>
@@ -377,7 +395,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> path </t>
     </r>
@@ -386,6 +404,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属性加上</t>
@@ -395,7 +414,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> /:id</t>
     </r>
@@ -404,6 +423,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -413,7 +433,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -423,6 +443,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用 router 对象的 params.id 获取</t>
@@ -440,7 +461,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> state</t>
     </r>
@@ -449,6 +470,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -458,7 +480,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>getter</t>
     </r>
@@ -467,6 +489,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -476,7 +499,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>mutation</t>
     </r>
@@ -485,6 +508,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -494,7 +518,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>action</t>
     </r>
@@ -503,6 +527,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -512,7 +537,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>module</t>
     </r>
@@ -524,7 +549,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">vue </t>
     </r>
@@ -534,6 +559,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -544,7 +570,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ajax </t>
     </r>
@@ -554,6 +580,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请求代码应该写在组件的</t>
@@ -564,7 +591,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>methods</t>
     </r>
@@ -574,6 +601,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中还是</t>
@@ -584,7 +612,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">vuex </t>
     </r>
@@ -594,6 +622,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的</t>
@@ -604,7 +633,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>action</t>
     </r>
@@ -614,6 +643,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -625,7 +655,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">vuex </t>
     </r>
@@ -634,6 +664,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>就是一个仓库，仓库里放了很多对象。其中</t>
@@ -643,7 +674,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> state </t>
     </r>
@@ -652,6 +683,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>就是数据源存放地，对应于一般</t>
@@ -661,7 +693,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> vue </t>
     </r>
@@ -670,6 +702,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对象里面的</t>
@@ -679,7 +712,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> data</t>
     </r>
@@ -690,7 +723,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">getter </t>
     </r>
@@ -699,6 +732,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以对</t>
@@ -708,7 +742,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> state </t>
     </r>
@@ -717,6 +751,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进行计算操作，它就是</t>
@@ -726,7 +761,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> store </t>
     </r>
@@ -735,6 +770,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的计算属性</t>
@@ -746,7 +782,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">action </t>
     </r>
@@ -755,6 +791,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类似于</t>
@@ -764,7 +801,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> muation, </t>
     </r>
@@ -773,6 +810,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不同在于：</t>
@@ -782,7 +820,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">action </t>
     </r>
@@ -791,6 +829,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>提交的是</t>
@@ -800,7 +839,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> mutation,</t>
     </r>
@@ -809,6 +848,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>而不是直接变更状态</t>
@@ -818,7 +858,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 action </t>
@@ -828,6 +868,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以包含任意异步操作</t>
@@ -839,6 +880,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果请求来的数据不是要被其他组件公用，仅仅在请求的组件内使用，就不需要放入</t>
@@ -848,7 +890,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> vuex </t>
     </r>
@@ -857,6 +899,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的</t>
@@ -866,7 +909,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> state </t>
     </r>
@@ -875,6 +918,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>里</t>
@@ -890,7 +934,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>entry</t>
     </r>
@@ -899,7 +943,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -908,6 +952,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>入口，告诉</t>
@@ -917,7 +962,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>webpack</t>
     </r>
@@ -926,6 +971,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>要使用哪个模块作为构建项目的起点，默认为</t>
@@ -935,7 +981,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">./src/index.js
 </t>
@@ -948,7 +994,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>output</t>
     </r>
@@ -957,7 +1003,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -966,6 +1012,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出口，告诉</t>
@@ -975,7 +1022,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>webpack</t>
     </r>
@@ -984,6 +1031,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>在哪里输出它打包好的代码以及如何命名，默认为</t>
@@ -993,7 +1041,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>./dist</t>
     </r>
@@ -1005,7 +1053,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>loader</t>
     </r>
@@ -1014,6 +1062,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是用来告诉</t>
@@ -1023,7 +1072,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>webpack</t>
     </r>
@@ -1032,6 +1081,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如何转换某一类型的文件，并且引入到打包出的文件中。</t>
@@ -1044,7 +1094,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>plugins</t>
     </r>
@@ -1053,7 +1103,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1062,6 +1112,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>插件</t>
@@ -1071,7 +1122,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1080,6 +1131,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作用更大，可以打包优化，资源管理和注入环境变量</t>
@@ -1092,6 +1144,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1102,6 +1155,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,6 +1168,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,6 +1179,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,6 +1192,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1146,6 +1203,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1223,6 +1281,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1232,7 +1291,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>html5</t>
     </r>
@@ -1241,6 +1300,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新引进的特性</t>
@@ -1252,6 +1312,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务器端对于</t>
@@ -1261,7 +1322,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CORS</t>
     </r>
@@ -1270,6 +1331,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的支持，主要就是通过设置</t>
@@ -1279,7 +1341,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Access-Control-Allow-Origin</t>
     </r>
@@ -1288,6 +1350,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>来进行的。如果浏览器检测到相应的设置，就可以允许</t>
@@ -1297,7 +1360,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Ajax</t>
     </r>
@@ -1306,6 +1369,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进行跨域的访问</t>
@@ -1339,6 +1403,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>引用数据类型</t>
@@ -1348,6 +1413,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：对象</t>
@@ -1357,7 +1423,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(Object)</t>
     </r>
@@ -1366,6 +1432,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、数组</t>
@@ -1375,7 +1442,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(Array)</t>
     </r>
@@ -1384,6 +1451,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、函数</t>
@@ -1393,7 +1461,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(Function)</t>
     </r>
@@ -1402,6 +1470,7 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1487,7 +1556,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">const </t>
     </r>
@@ -1496,7 +1565,7 @@
         <sz val="9"/>
         <color rgb="FF0086B3"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>clone</t>
     </r>
@@ -1505,7 +1574,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Person = JSON.parse(JSON.stringify(person))</t>
     </r>
@@ -1528,7 +1597,7 @@
         <sz val="13.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -1538,7 +1607,7 @@
         <sz val="13.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vue异步组件技术</t>
     </r>
@@ -1550,7 +1619,7 @@
         <sz val="13.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -1560,7 +1629,7 @@
         <sz val="13.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>es提案的import()</t>
     </r>
@@ -1577,6 +1646,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>推荐使用这种方式</t>
@@ -1586,7 +1656,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1595,6 +1665,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要</t>
@@ -1604,7 +1675,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>webpack &gt; 2.4)
 webpack</t>
@@ -1614,6 +1685,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>官方文档：</t>
@@ -1623,7 +1695,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>webpack</t>
     </r>
@@ -1632,6 +1704,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中使用</t>
@@ -1641,7 +1714,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>import() vue</t>
     </r>
@@ -1650,6 +1723,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>官方文档：路由懒加载使用</t>
@@ -1659,7 +1733,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>import()</t>
     </r>
@@ -1706,6 +1780,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1717,7 +1792,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1726,6 +1801,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,18 +1832,75 @@
   <si>
     <t>因为在vue中每个组件都是个vue实例，data数据放在函数里return出去，会有函数作用域，保证了每个组件的data数据作用域是在当前组件，不会与其他组件的共享.</t>
   </si>
+  <si>
+    <t>若是行内元素, 给其父元素设置 text-align:center,即可实现行内元素水平居中.</t>
+  </si>
+  <si>
+    <t>若是块级元素, 该元素设置 margin:0 auto即可</t>
+  </si>
+  <si>
+    <t>若子元素包含 float:left 属性, 为了让子元素水平居中, 则可让父元素宽度设置为fit-content,并且配合margin, 作如下设置:</t>
+  </si>
+  <si>
+    <t>使用flex 2012年版本布局, 可以轻松的实现水平居中, 子元素设置如下</t>
+  </si>
+  <si>
+    <t>.parent{
+      width: -moz-fit-content;
+    width: -webkit-fit-content;
+    width:fit-content;
+    margin:0 auto;
+}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>.son{
+    display: flex;
+    justify-content: center;
+}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用flex 2009年版本, 父元素display: box;box-pack: center;如下设置:</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用CSS3中新增的transform属性, 子元素设置如下:</t>
+  </si>
+  <si>
+    <t>.son{
+    position:absolute;
+      left:50%;
+      transform:translate(-50%,0);
+}</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平居中</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue - 监听数据的三种方法</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在input标签里绑定keyup事件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用watch</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>computed计算属性的使用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1801,14 +1934,14 @@
       <sz val="14"/>
       <color rgb="FF3E3E3E"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1820,7 +1953,7 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1834,13 +1967,13 @@
       <sz val="14"/>
       <color rgb="FF008080"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1854,26 +1987,26 @@
       <sz val="24"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.25"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -1882,153 +2015,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF0086B3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Marker Felt"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF3E3E3E"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2036,222 +2044,80 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0086B3"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.5"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Marker Felt"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2259,255 +2125,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2518,12 +2142,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2543,9 +2161,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2574,80 +2189,69 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50165</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1232535</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>2224405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2658,7 +2262,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2683,13 +2287,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>17780</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1637030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2700,7 +2304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2725,13 +2329,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>598805</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2266950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2742,7 +2346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3047,32 +2651,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="39.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="39" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.1666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" ht="18.75">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3082,8 +2686,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
+    <row r="4" spans="2:7" ht="18.75">
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3100,8 +2704,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4"/>
+    <row r="5" spans="2:7" ht="18.75">
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3118,8 +2722,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="72" customHeight="1" spans="2:7">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:7" ht="72" customHeight="1">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3138,8 +2742,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:7" ht="18.75">
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3164,515 +2768,621 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="2:7" ht="13.5">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" ht="51" customHeight="1" spans="2:2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="69" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="13.5">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="46" customHeight="1" spans="2:7">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="4" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.75">
+      <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.75">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" ht="95" customHeight="1" spans="2:3">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="95.1" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="56.25">
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" ht="56.25" spans="2:4">
-      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="47" customHeight="1" spans="2:4">
-      <c r="B18" s="4" t="s">
+    <row r="17" spans="2:7" ht="47.1" customHeight="1">
+      <c r="B17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="75" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
+    <row r="18" spans="2:7" ht="75">
+      <c r="B18" s="20"/>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="64" customHeight="1" spans="2:6">
-      <c r="B20" s="4" t="s">
+    <row r="19" spans="2:7" ht="63.95" customHeight="1">
+      <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="81" customHeight="1" spans="2:6">
-      <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
+    <row r="20" spans="2:7" ht="81" customHeight="1">
+      <c r="B20" s="20"/>
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" ht="81" customHeight="1" spans="2:7">
-      <c r="B22" s="4" t="s">
+    <row r="21" spans="2:7" ht="81" customHeight="1">
+      <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="130" customHeight="1" spans="3:4">
-      <c r="C23" s="3" t="s">
+    <row r="22" spans="2:7" ht="129.94999999999999" customHeight="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" ht="180" customHeight="1"/>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4" t="s">
+    <row r="25" spans="2:7" ht="180" customHeight="1"/>
+    <row r="26" spans="2:7" ht="13.5">
+      <c r="B26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" ht="208" customHeight="1" spans="2:7">
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" ht="57" customHeight="1" spans="2:3">
-      <c r="B29" s="2" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" ht="207.95" customHeight="1">
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" ht="57" customHeight="1">
+      <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="42.95" customHeight="1">
+      <c r="B29" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="43" customHeight="1" spans="2:6">
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="57.95" customHeight="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="58" customHeight="1" spans="3:6">
-      <c r="C31" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="18.75">
+      <c r="B31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" ht="96" customHeight="1" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="E33" s="8" t="s">
+    <row r="32" spans="2:7" ht="96" customHeight="1">
+      <c r="B32" s="20"/>
+      <c r="E32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="4" t="s">
+    <row r="33" spans="2:7" ht="18.75">
+      <c r="B33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="37.5" spans="2:4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="14" t="s">
+    <row r="34" spans="2:7" ht="37.5">
+      <c r="B34" s="20"/>
+      <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" spans="2:6">
-      <c r="B36" s="16" t="s">
+    <row r="35" spans="2:7" ht="54" customHeight="1">
+      <c r="B35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="126" customHeight="1" spans="2:3">
+    <row r="36" spans="2:7" ht="126" customHeight="1">
+      <c r="B36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:7" ht="45">
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" ht="45" spans="2:4">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="67.5">
       <c r="B38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" ht="67.5" spans="2:3">
+        <v>95</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="2:7" ht="67.5">
       <c r="B39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" ht="67.5" spans="2:3">
-      <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C39" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="4" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:7" ht="18.75">
+      <c r="B40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C40" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G40" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" ht="48" spans="2:7">
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="F42" s="18" t="s">
+    <row r="41" spans="2:7" ht="48">
+      <c r="B41" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="F41" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="4"/>
-      <c r="C43" s="3" t="s">
+    <row r="42" spans="2:7" ht="18.75">
+      <c r="B42" s="20"/>
+      <c r="C42" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" ht="24" spans="2:4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="18" t="s">
+    <row r="43" spans="2:7" ht="24">
+      <c r="B43" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="4" t="s">
+    <row r="44" spans="2:7" ht="13.5">
+      <c r="B44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C44" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" ht="70" customHeight="1" spans="2:2">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="4" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7" ht="69.95" customHeight="1">
+      <c r="B45" s="20"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="2:7" ht="18.75">
+      <c r="B46" s="20" t="s">
         <v>112</v>
       </c>
+      <c r="C46" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="57">
+      <c r="B47" s="20"/>
       <c r="C47" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" ht="56.25" spans="2:5">
-      <c r="B48" s="4"/>
-      <c r="C48" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" ht="175.5" spans="2:5">
-      <c r="B49" s="4"/>
-      <c r="C49" s="20" t="s">
+    <row r="48" spans="2:7" ht="175.5">
+      <c r="B48" s="20"/>
+      <c r="C48" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D48" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E48" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" ht="141" customHeight="1" spans="2:3">
+    <row r="49" spans="2:7" ht="141" customHeight="1">
+      <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="2:7" ht="221.1" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" ht="221" customHeight="1" spans="2:3">
+        <v>124</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="2:7" ht="84.95" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" ht="85" customHeight="1" spans="2:3">
-      <c r="B52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C51" s="19" t="s">
         <v>127</v>
       </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="2:7" ht="56.25">
+      <c r="B52" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="131.25">
+      <c r="B53" s="29"/>
+      <c r="E53" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="28.5">
+      <c r="B54" s="29"/>
+      <c r="C54" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="60">
+      <c r="B55" s="29"/>
+      <c r="C55" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="45">
+      <c r="B56" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C27:G28"/>
-    <mergeCell ref="C45:G46"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C28:G28"/>
   </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId2" display="vue-router配置路由，使用vue的异步组件技术，可以实现按需加载（懒加载）。 但是，这种情况下一个组件生成一个js文件。" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
-    <hyperlink ref="E48" r:id="rId3" display="vue-router配置路由，使用webpack的require.ensure技术，也可以实现按需加载。 这种情况下，多个路由指定相同的chunkName，会合并打包成一个js文件"/>
+    <hyperlink ref="C47" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
+    <hyperlink ref="E47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6945"/>
+    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>es6新特性</t>
   </si>
@@ -335,7 +335,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有哪几种导航钩子</t>
@@ -347,7 +346,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -366,7 +364,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>目录下的</t>
@@ -385,7 +382,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件中，对</t>
@@ -404,7 +400,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属性加上</t>
@@ -423,7 +418,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -443,7 +437,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用 router 对象的 params.id 获取</t>
@@ -470,7 +463,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -489,7 +481,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -508,7 +499,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -527,7 +517,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -559,7 +548,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -580,7 +568,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请求代码应该写在组件的</t>
@@ -601,7 +588,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中还是</t>
@@ -622,7 +608,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的</t>
@@ -643,7 +628,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -664,7 +648,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>就是一个仓库，仓库里放了很多对象。其中</t>
@@ -683,7 +666,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>就是数据源存放地，对应于一般</t>
@@ -702,7 +684,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对象里面的</t>
@@ -732,7 +713,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以对</t>
@@ -751,7 +731,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进行计算操作，它就是</t>
@@ -770,7 +749,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的计算属性</t>
@@ -791,7 +769,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类似于</t>
@@ -810,7 +787,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不同在于：</t>
@@ -829,7 +805,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>提交的是</t>
@@ -848,7 +823,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>而不是直接变更状态</t>
@@ -868,7 +842,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以包含任意异步操作</t>
@@ -880,7 +853,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果请求来的数据不是要被其他组件公用，仅仅在请求的组件内使用，就不需要放入</t>
@@ -899,7 +871,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的</t>
@@ -918,7 +889,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>里</t>
@@ -952,7 +922,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>入口，告诉</t>
@@ -971,7 +940,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>要使用哪个模块作为构建项目的起点，默认为</t>
@@ -1012,7 +980,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出口，告诉</t>
@@ -1031,7 +998,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>在哪里输出它打包好的代码以及如何命名，默认为</t>
@@ -1062,7 +1028,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是用来告诉</t>
@@ -1081,7 +1046,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如何转换某一类型的文件，并且引入到打包出的文件中。</t>
@@ -1112,7 +1076,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>插件</t>
@@ -1131,7 +1094,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作用更大，可以打包优化，资源管理和注入环境变量</t>
@@ -1144,7 +1106,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1155,7 +1116,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1128,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1179,7 +1138,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1192,7 +1150,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1203,7 +1160,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1281,7 +1237,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1300,7 +1255,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新引进的特性</t>
@@ -1312,7 +1266,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务器端对于</t>
@@ -1331,7 +1284,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的支持，主要就是通过设置</t>
@@ -1350,7 +1302,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>来进行的。如果浏览器检测到相应的设置，就可以允许</t>
@@ -1369,7 +1320,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进行跨域的访问</t>
@@ -1403,7 +1353,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>引用数据类型</t>
@@ -1413,7 +1362,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：对象</t>
@@ -1432,7 +1380,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、数组</t>
@@ -1451,7 +1398,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、函数</t>
@@ -1470,7 +1416,6 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1646,7 +1591,6 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>推荐使用这种方式</t>
@@ -1665,7 +1609,6 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要</t>
@@ -1685,7 +1628,6 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>官方文档：</t>
@@ -1704,7 +1646,6 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中使用</t>
@@ -1723,7 +1664,6 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>官方文档：路由懒加载使用</t>
@@ -1780,7 +1720,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1801,7 +1740,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1851,18 +1789,18 @@
     width:fit-content;
     margin:0 auto;
 }</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>.son{
     display: flex;
     justify-content: center;
 }</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>使用flex 2009年版本, 父元素display: box;box-pack: center;如下设置:</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>使用CSS3中新增的transform属性, 子元素设置如下:</t>
@@ -1873,34 +1811,219 @@
       left:50%;
       transform:translate(-50%,0);
 }</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>水平居中</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Vue - 监听数据的三种方法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>我们在input标签里绑定keyup事件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>使用watch</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>computed计算属性的使用</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝数组的方式</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅拷贝
+es6 展开运算符 (...) 可以在函数调用/数组构造时, 将数组表达式或者string在语法层面展开；还可以在构造字面量对象时, 将对象表达式按key-value的方式展开
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝
+json.parse(json.stringify(arr))</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter 返回符合过滤条件的部分数组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>some 只要有任意一个元素满足条件，返回 true ,否则返回 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>every 必须全部元素满足条件，返回true，否则返回 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach 总是返回undefined</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组遍历的几张方法返回值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+slice 方法返回一个新的数组对象，这一对象是一个由 begin 和 end 决定的原数组的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（包括 begin，不包括end）。如果该元素是个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象引用 （不是实际的对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，slice 会拷贝这个对象引用到新的数组里。两个对象引用都引用了同一个对象。如果被引用的对象发生改变，则新的和原来的数组中的这个元素也会发生改变。元素的其他数据类型正常拷贝</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+concat 方法用于合并两个或多个数组。此方法不会更改现有数组，而是返回一个新数组. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象引用（而不是实际对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：concat将对象引用复制到新数组中。 原始数组和新数组都引用相同的对象。 也就是说，如果引用的对象被修改，则更改对于新数组和原始数组都是可见的。 这包括也是数组的数组参数的元素。元素的其他数据类型正常拷贝.</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 和 undefined区别</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined 表示此处应该有值，但还没定义, false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null == undefined  结果 true
+null === undefined 结果 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 表示一个值被定义了，但这个值是空值 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue 组件中name的用处</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. keep-alive 时用来标记组件</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 递归组件时用</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. vue 浏览器插件调试时查看组件名</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2048,43 +2171,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2131,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2189,8 +2281,32 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2198,33 +2314,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2657,26 +2752,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G56"/>
+  <dimension ref="B3:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="39" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18.75">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:7" ht="17">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2686,8 +2781,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18.75">
-      <c r="B4" s="20"/>
+    <row r="4" spans="2:7" ht="17">
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2799,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
-      <c r="B5" s="20"/>
+    <row r="5" spans="2:7" ht="17">
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2723,7 +2818,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2742,8 +2837,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
-      <c r="B7" s="20"/>
+    <row r="7" spans="2:7" ht="17">
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2768,81 +2863,81 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="13.5">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:7" ht="14">
+      <c r="B9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="2:7" ht="69" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="13.5">
-      <c r="B11" s="20" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:7" ht="14">
+      <c r="B11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:7" ht="45.95" customHeight="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="2:7" ht="18.75">
-      <c r="B13" s="20" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" ht="46" customHeight="1">
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="17">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" ht="18.75">
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" ht="17">
+      <c r="B14" s="28"/>
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" ht="95.1" customHeight="1">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" ht="95" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="56.25">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="51">
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
@@ -2853,8 +2948,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="47.1" customHeight="1">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="2:7" ht="47" customHeight="1">
+      <c r="B17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2864,8 +2959,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="75">
-      <c r="B18" s="20"/>
+    <row r="18" spans="2:7" ht="51">
+      <c r="B18" s="28"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2968,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="63.95" customHeight="1">
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="2:7" ht="64" customHeight="1">
+      <c r="B19" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2885,7 +2980,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="81" customHeight="1">
-      <c r="B20" s="20"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
@@ -2900,7 +2995,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="28" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2919,16 +3014,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="129.94999999999999" customHeight="1">
-      <c r="B22" s="21"/>
+    <row r="22" spans="2:7" ht="130" customHeight="1">
+      <c r="B22" s="29"/>
       <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2" t="s">
@@ -2936,38 +3031,38 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="180" customHeight="1"/>
-    <row r="26" spans="2:7" ht="13.5">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="2:7" ht="14">
+      <c r="B26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:7" ht="207.95" customHeight="1">
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" ht="208" customHeight="1">
+      <c r="B27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7" ht="57" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" ht="42.95" customHeight="1">
-      <c r="B29" s="20" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="2:7" ht="43" customHeight="1">
+      <c r="B29" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2983,8 +3078,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="57.95" customHeight="1">
-      <c r="B30" s="21"/>
+    <row r="30" spans="2:7" ht="58" customHeight="1">
+      <c r="B30" s="29"/>
       <c r="C30" s="10" t="s">
         <v>67</v>
       </c>
@@ -2998,8 +3093,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.75">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="2:7" ht="17">
+      <c r="B31" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3019,7 +3114,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="96" customHeight="1">
-      <c r="B32" s="20"/>
+      <c r="B32" s="28"/>
       <c r="E32" s="6" t="s">
         <v>75</v>
       </c>
@@ -3027,8 +3122,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="18.75">
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="2:7" ht="17">
+      <c r="B33" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3047,8 +3142,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="37.5">
-      <c r="B34" s="20"/>
+    <row r="34" spans="2:7" ht="34">
+      <c r="B34" s="28"/>
       <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
@@ -3077,15 +3172,15 @@
       <c r="B36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="2:7" ht="45">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="2:7" ht="42">
       <c r="B37" s="2" t="s">
         <v>92</v>
       </c>
@@ -3096,35 +3191,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="67.5">
+    <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" ht="67.5">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:7" ht="63">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:7" ht="18.75">
-      <c r="B40" s="20" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="2:7" ht="17">
+      <c r="B40" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="25" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3140,9 +3235,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="48">
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
+    <row r="41" spans="2:7" ht="36">
+      <c r="B41" s="28"/>
+      <c r="C41" s="25"/>
       <c r="F41" s="15" t="s">
         <v>104</v>
       </c>
@@ -3150,9 +3245,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18.75">
-      <c r="B42" s="20"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="2:7" ht="17">
+      <c r="B42" s="28"/>
+      <c r="C42" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3163,34 +3258,34 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="24">
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="13.5">
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="2:7" ht="14">
+      <c r="B44" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="2:7" ht="69.95" customHeight="1">
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="2:7" ht="18.75">
-      <c r="B46" s="20" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="2:7" ht="70" customHeight="1">
+      <c r="B45" s="28"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="2:7" ht="17">
+      <c r="B46" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="14" t="s">
@@ -3203,8 +3298,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="57">
-      <c r="B47" s="20"/>
+    <row r="47" spans="2:7" ht="52">
+      <c r="B47" s="28"/>
       <c r="C47" s="17" t="s">
         <v>116</v>
       </c>
@@ -3215,8 +3310,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="175.5">
-      <c r="B48" s="20"/>
+    <row r="48" spans="2:7" ht="180">
+      <c r="B48" s="28"/>
       <c r="C48" s="17" t="s">
         <v>119</v>
       </c>
@@ -3231,100 +3326,177 @@
       <c r="B49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="2:7" ht="221.1" customHeight="1">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="2:7" ht="221" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="2:7" ht="84.95" customHeight="1">
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="2:7" ht="85" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" ht="56.25">
-      <c r="B52" s="29" t="s">
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="2:7" ht="51">
+      <c r="B52" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="131.25">
-      <c r="B53" s="29"/>
-      <c r="E53" s="27" t="s">
+    <row r="53" spans="2:7" ht="102">
+      <c r="B53" s="27"/>
+      <c r="E53" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="28.5">
-      <c r="B54" s="29"/>
-      <c r="C54" s="26" t="s">
+    <row r="54" spans="2:7" ht="26">
+      <c r="B54" s="27"/>
+      <c r="C54" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="60">
-      <c r="B55" s="29"/>
-      <c r="C55" s="28" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="45">
-      <c r="B56" s="24" t="s">
+    <row r="56" spans="2:7" ht="42">
+      <c r="B56" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="22" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="187">
+      <c r="B57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="68">
+      <c r="B58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="42">
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="42">
+      <c r="B60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="C26:G27"/>
     <mergeCell ref="C44:G45"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
@@ -3335,20 +3507,8 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C28:G28"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C47" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
     <hyperlink ref="E47" r:id="rId2"/>
@@ -3356,6 +3516,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3365,11 +3530,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3379,10 +3549,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="172">
   <si>
     <t>es6新特性</t>
   </si>
@@ -1494,35 +1494,6 @@
   </si>
   <si>
     <t>递归拷贝</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">const </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0086B3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>clone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Person = JSON.parse(JSON.stringify(person))</t>
-    </r>
   </si>
   <si>
     <t>什么是saas系统</t>
@@ -1844,178 +1815,296 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>filter 返回符合过滤条件的部分数组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>some 只要有任意一个元素满足条件，返回 true ,否则返回 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>every 必须全部元素满足条件，返回true，否则返回 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach 总是返回undefined</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+slice 方法返回一个新的数组对象，这一对象是一个由 begin 和 end 决定的原数组的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（包括 begin，不包括end）。如果该元素是个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象引用 （不是实际的对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，slice 会拷贝这个对象引用到新的数组里。两个对象引用都引用了同一个对象。如果被引用的对象发生改变，则新的和原来的数组中的这个元素也会发生改变。元素的其他数据类型正常拷贝</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+concat 方法用于合并两个或多个数组。此方法不会更改现有数组，而是返回一个新数组. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象引用（而不是实际对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：concat将对象引用复制到新数组中。 原始数组和新数组都引用相同的对象。 也就是说，如果引用的对象被修改，则更改对于新数组和原始数组都是可见的。 这包括也是数组的数组参数的元素。元素的其他数据类型正常拷贝.</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 和 undefined区别</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue 组件中name的用处</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. keep-alive 时用来标记组件</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. vue 浏览器插件调试时查看组件名</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null == undefined  结果 true
+null === undefined 结果 false</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 表示'没有值' 即该处不应该有值
+Number(null) 为 数字0</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined 表示'缺少值'此处应该有值，但还没定义. Number(undefined) 为 NaN</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 递归组件时可用</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>js 构造函数继承的几种方式</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>http和https区别</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp三次握手</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>深拷贝
 json.parse(json.stringify(arr))</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>filter 返回符合过滤条件的部分数组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>some 只要有任意一个元素满足条件，返回 true ,否则返回 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>every 必须全部元素满足条件，返回true，否则返回 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>forEach 总是返回undefined</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组遍历的几张方法返回值</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>map 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浅拷贝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-slice 方法返回一个新的数组对象，这一对象是一个由 begin 和 end 决定的原数组的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浅拷贝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（包括 begin，不包括end）。如果该元素是个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对象引用 （不是实际的对象）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，slice 会拷贝这个对象引用到新的数组里。两个对象引用都引用了同一个对象。如果被引用的对象发生改变，则新的和原来的数组中的这个元素也会发生改变。元素的其他数据类型正常拷贝</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浅拷贝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-concat 方法用于合并两个或多个数组。此方法不会更改现有数组，而是返回一个新数组. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对象引用（而不是实际对象）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：concat将对象引用复制到新数组中。 原始数组和新数组都引用相同的对象。 也就是说，如果引用的对象被修改，则更改对于新数组和原始数组都是可见的。 这包括也是数组的数组参数的元素。元素的其他数据类型正常拷贝.</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 和 undefined区别</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>undefined 表示此处应该有值，但还没定义, false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>null == undefined  结果 true
-null === undefined 结果 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 表示一个值被定义了，但这个值是空值 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue 组件中name的用处</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. keep-alive 时用来标记组件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 递归组件时用</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. vue 浏览器插件调试时查看组件名</t>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>clone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Person = JSON.parse(JSON.stringify(person))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺点：value是function或undefined 不能拷贝</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>let obj1 = {
+  arr: [
+    {
+      prop: 1,
+    },
+    {
+      prop: 2,
+    },
+  ],
+};
+function copy(obj) {
+  var newObj = obj instanceof Array &amp;&amp; [] || {};
+  for(let key in obj) {
+    newObj[key] = obj[key] instanceof Object &amp;&amp; copy(obj[key]) || obj[key];  
+  }
+  return newObj;
+}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型链继承
+child.prototype = new parent();
+缺点：
+1.对于数组，对象这些按引用路径赋值的属性会被所有实例共享.
+2.创建child实例时，无法向parent传参数</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">借助构造函数
+function Parent() {
+  this.name = ['Dav', 'Li'];
+}
+function Child() {
+  Parent.call(this);
+}
+var child1 = new Child('Davio');
+var child2 = new Child('James');
+优点：
+1. 避免引用类型值被全部实例共享.
+2. Child时可以向Parent传参.
+缺点：
+1. 方法都在构造函数中定义，每次实例都要创建一遍方法.
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器 (能听到我说话吗)-&gt;  服务器
+浏览器 &lt;- (可以 能听到我说话吗) 服务器
+浏览器 (我也能听到，开始连接) -&gt;  服务器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>cors跨域的原理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组遍历方法返回值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断两个对象相等</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>var a = {a: 1, b: [2,5]};
+var b = {a: 2, b: [5,2]};
+console.log(JSON.stringify(a) == JSON.stringify(b));</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2023,7 +2112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2200,6 +2289,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2296,10 +2392,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2309,13 +2411,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2752,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G60"/>
+  <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2771,7 +2867,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2782,7 +2878,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="17">
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2800,7 +2896,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="28"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2914,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2838,7 +2934,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +2960,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="14">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2876,7 +2972,7 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="2:7" ht="69" customHeight="1">
-      <c r="B10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -2884,27 +2980,27 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:7" ht="14">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="46" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="17">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -2916,7 +3012,7 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="2:7" ht="17">
-      <c r="B14" s="28"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
@@ -2949,7 +3045,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="47" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2960,7 +3056,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="51">
-      <c r="B18" s="28"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2969,7 +3065,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="64" customHeight="1">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2980,7 +3076,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="81" customHeight="1">
-      <c r="B20" s="28"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
@@ -2995,7 +3091,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -3015,7 +3111,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="130" customHeight="1">
-      <c r="B22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
@@ -3032,22 +3128,22 @@
     </row>
     <row r="25" spans="2:7" ht="180" customHeight="1"/>
     <row r="26" spans="2:7" ht="14">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="2:7" ht="208" customHeight="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="2:7" ht="57" customHeight="1">
       <c r="B28" s="2" t="s">
@@ -3062,7 +3158,7 @@
       <c r="G28" s="25"/>
     </row>
     <row r="29" spans="2:7" ht="43" customHeight="1">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3079,7 +3175,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="58" customHeight="1">
-      <c r="B30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="10" t="s">
         <v>67</v>
       </c>
@@ -3094,7 +3190,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="17">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3114,7 +3210,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="96" customHeight="1">
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="E32" s="6" t="s">
         <v>75</v>
       </c>
@@ -3123,7 +3219,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="17">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3143,7 +3239,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="34">
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
@@ -3216,7 +3312,7 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="2:7" ht="17">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -3236,7 +3332,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="36">
-      <c r="B41" s="28"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="F41" s="15" t="s">
         <v>104</v>
@@ -3246,7 +3342,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="17">
-      <c r="B42" s="28"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="25" t="s">
         <v>106</v>
       </c>
@@ -3257,19 +3353,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="24">
-      <c r="B43" s="28"/>
+    <row r="43" spans="2:7" ht="340">
+      <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="14">
+      <c r="B44" s="26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="14">
-      <c r="B44" s="28" t="s">
+      <c r="C44" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3277,7 +3376,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="2:7" ht="70" customHeight="1">
-      <c r="B45" s="28"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3285,49 +3384,49 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="2:7" ht="17">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="14" t="s">
+    </row>
+    <row r="47" spans="2:7" ht="52">
+      <c r="B47" s="26"/>
+      <c r="C47" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="52">
-      <c r="B47" s="28"/>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="17" t="s">
+    </row>
+    <row r="48" spans="2:7" ht="180">
+      <c r="B48" s="26"/>
+      <c r="C48" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="180">
-      <c r="B48" s="28"/>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="141" customHeight="1">
       <c r="B49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -3336,161 +3435,186 @@
     </row>
     <row r="50" spans="2:7" ht="221" customHeight="1">
       <c r="B50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="D50" s="25"/>
     </row>
     <row r="51" spans="2:7" ht="85" customHeight="1">
       <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="2:7" ht="51">
+      <c r="B52" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="2:7" ht="51">
-      <c r="B52" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="G52" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="102">
+      <c r="B53" s="29"/>
+      <c r="E53" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="F53" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="26">
+      <c r="B54" s="29"/>
+      <c r="C54" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="102">
-      <c r="B53" s="27"/>
-      <c r="E53" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="26">
-      <c r="B54" s="27"/>
-      <c r="C54" s="21" t="s">
+    <row r="55" spans="2:7" ht="60">
+      <c r="B55" s="29"/>
+      <c r="C55" s="23" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="60">
-      <c r="B55" s="27"/>
-      <c r="C55" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42">
       <c r="B56" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="D56" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="E56" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="187">
       <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>144</v>
+      <c r="F57" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="68">
       <c r="B58" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="51">
+      <c r="B59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="42">
-      <c r="B59" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="42">
       <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="323">
+      <c r="B61" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="C61" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="42">
+      <c r="B62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="3" t="s">
+    </row>
+    <row r="63" spans="2:7" ht="85">
+      <c r="B63" s="2" t="s">
         <v>160</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="68">
+      <c r="B66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="C26:G27"/>
@@ -3507,6 +3631,23 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C28:G28"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
   <si>
     <t>es6新特性</t>
   </si>
@@ -2066,45 +2066,83 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>浏览器 (能听到我说话吗)-&gt;  服务器
+浏览器 &lt;- (可以 能听到我说话吗) 服务器
+浏览器 (我也能听到，开始连接) -&gt;  服务器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>cors跨域的原理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组遍历方法返回值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断两个对象相等</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>var a = {a: 1, b: [2,5]};
+var b = {a: 2, b: [5,2]};
+console.log(JSON.stringify(a) == JSON.stringify(b));</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">借助构造函数
 function Parent() {
   this.name = ['Dav', 'Li'];
+}
+Parent.prototype.getName = function() {
+  console.log(this.name);
 }
 function Child() {
   Parent.call(this);
 }
 var child1 = new Child('Davio');
 var child2 = new Child('James');
+child1.getName();  //Error
 优点：
 1. 避免引用类型值被全部实例共享.
 2. Child时可以向Parent传参.
 缺点：
-1. 方法都在构造函数中定义，每次实例都要创建一遍方法.
+1. 不能继承到构造函数原型上的方法，只能继承到定义在构造函数的方法，每次实例都要创建一遍方法.
 </t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>浏览器 (能听到我说话吗)-&gt;  服务器
-浏览器 &lt;- (可以 能听到我说话吗) 服务器
-浏览器 (我也能听到，开始连接) -&gt;  服务器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cors跨域的原理</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组遍历方法返回值</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断两个对象相等</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>var a = {a: 1, b: [2,5]};
-var b = {a: 2, b: [5,2]};
-console.log(JSON.stringify(a) == JSON.stringify(b));</t>
+    <t xml:space="preserve">组合继承
+原型链继承和借助构造函数继承的组合
+function Parent(name) {
+  this.name = name;
+  this.colors = ['pink', 'blue'];
+}
+Parent.prototype.getName = function() {
+  console.log(this.name);
+}
+function Child(name, age) {
+  Parent.call(this, name);
+  this.age = age;
+}
+Child.prototype = new Parent();
+Child.prototype.constructor = Child;
+var child1 = new Child('Devin', 18);
+var child2 = new Child('Yioo', 20);
+child1.colors.push('black');
+console.log(child1.colors)
+console.log(child2.colors);
+child1.getName();
+child2.getName();
+优点：融合原型链和借助的优点，是JS中最常用的模式.
+缺点：调用两次父构造函数
+  第一次在Child.prototype = new Parent()
+  第二次在var child1 = new Child(); 在new Child()，回想下new模拟实现，会执行 Parent.call(this); 
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>new 模拟实现</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2395,19 +2433,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2848,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G66"/>
+  <dimension ref="B3:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2867,7 +2905,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2878,7 +2916,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="17">
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,7 +2934,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2914,7 +2952,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2934,7 +2972,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2960,78 +2998,78 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="14">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7" ht="69" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7" ht="14">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" ht="46" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="2:7" ht="17">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" ht="17">
-      <c r="B14" s="26"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" ht="95" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7" ht="51">
       <c r="B16" s="2" t="s">
@@ -3045,7 +3083,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="47" customHeight="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3056,7 +3094,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="51">
-      <c r="B18" s="26"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -3065,7 +3103,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="64" customHeight="1">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3076,7 +3114,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="81" customHeight="1">
-      <c r="B20" s="26"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +3129,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -3115,11 +3153,11 @@
       <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2" t="s">
@@ -3128,37 +3166,37 @@
     </row>
     <row r="25" spans="2:7" ht="180" customHeight="1"/>
     <row r="26" spans="2:7" ht="14">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="2:7" ht="208" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="2:7" ht="57" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7" ht="43" customHeight="1">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3190,7 +3228,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="17">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3210,7 +3248,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="96" customHeight="1">
-      <c r="B32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="E32" s="6" t="s">
         <v>75</v>
       </c>
@@ -3219,7 +3257,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="17">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3239,7 +3277,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="34">
-      <c r="B34" s="26"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
@@ -3268,13 +3306,13 @@
       <c r="B36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7" ht="42">
       <c r="B37" s="2" t="s">
@@ -3291,31 +3329,31 @@
       <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7" ht="63">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="17">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3332,8 +3370,8 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="36">
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="26"/>
       <c r="F41" s="15" t="s">
         <v>104</v>
       </c>
@@ -3342,8 +3380,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="17">
-      <c r="B42" s="26"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3354,8 +3392,8 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="340">
-      <c r="B43" s="26"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="15" t="s">
         <v>163</v>
       </c>
@@ -3364,27 +3402,27 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="14">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7" ht="70" customHeight="1">
-      <c r="B45" s="26"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7" ht="17">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="14" t="s">
@@ -3398,7 +3436,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="52">
-      <c r="B47" s="26"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="17" t="s">
         <v>115</v>
       </c>
@@ -3410,7 +3448,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="180">
-      <c r="B48" s="26"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="17" t="s">
         <v>118</v>
       </c>
@@ -3425,34 +3463,34 @@
       <c r="B49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" ht="221" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="85" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="51">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -3472,7 +3510,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" ht="102">
-      <c r="B53" s="29"/>
+      <c r="B53" s="28"/>
       <c r="E53" s="22" t="s">
         <v>131</v>
       </c>
@@ -3481,13 +3519,13 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="26">
-      <c r="B54" s="29"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="60">
-      <c r="B55" s="29"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="23" t="s">
         <v>135</v>
       </c>
@@ -3525,7 +3563,7 @@
     </row>
     <row r="58" spans="2:7" ht="68">
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>147</v>
@@ -3571,7 +3609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="323">
+    <row r="61" spans="2:7" ht="409">
       <c r="B61" s="2" t="s">
         <v>158</v>
       </c>
@@ -3579,7 +3617,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="42">
@@ -3592,7 +3633,7 @@
         <v>160</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -3602,19 +3643,41 @@
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="68">
       <c r="B66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>171</v>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="C26:G27"/>
@@ -3631,23 +3694,6 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C28:G28"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>es6新特性</t>
   </si>
@@ -38,27 +38,9 @@
     <t>class</t>
   </si>
   <si>
-    <t>字符串模板</t>
-  </si>
-  <si>
-    <t>解构赋值</t>
-  </si>
-  <si>
-    <t>默认参数值</t>
-  </si>
-  <si>
     <t>扩展运算符</t>
   </si>
   <si>
-    <t>let、const</t>
-  </si>
-  <si>
-    <t>promise</t>
-  </si>
-  <si>
-    <t>for-of</t>
-  </si>
-  <si>
     <t>module（export、import）</t>
   </si>
   <si>
@@ -71,12 +53,6 @@
     <t>边框（border-radius、box-shadow和border-image）</t>
   </si>
   <si>
-    <t>背景（background-clip、background-origin、background-size和background-break）</t>
-  </si>
-  <si>
-    <t>渐变</t>
-  </si>
-  <si>
     <t>box-sizing</t>
   </si>
   <si>
@@ -102,12 +78,6 @@
   </si>
   <si>
     <t>vue生命周期</t>
-  </si>
-  <si>
-    <t>beforecreate : 可以在这加个loading事件，在加载实例时触发
-created : 初始化完成时的事件写在这里，如在这结束loading事件，异步请求也适宜在这里调用
- 挂载元素，获取到DOM节点 updated : 如果对数据统一处理，在这里写上相应函数
-可以做一个确认停止事件的确认框 nextTick : 更新数据后立即操作dom!</t>
   </si>
   <si>
     <t>mvvm</t>
@@ -123,222 +93,16 @@
     <t>用js模拟dom结构，dom操作非常昂贵，将dom比对放入js提高效率</t>
   </si>
   <si>
-    <t>核心函数diff（h，pach）</t>
-  </si>
-  <si>
     <t>v-for的key</t>
   </si>
   <si>
-    <t>1. 在写v-for的时候，都需要给元素加上一个key属性
-2. key的主要作用就是用来提高渲染性能的！
-3.key属性可以避免数据混乱的情况出现 （如果元素中包含了有临时数据的元素，如果不用key就会产生数据混乱）</t>
-  </si>
-  <si>
     <t>vue watch和computed</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">computed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算属性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>依赖其它属性值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并且</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> computed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的值有缓存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只有它依赖的属性值发生改变</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">watch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>侦听器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更多的是「观察」的作用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无缓存性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3E3E3E"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类似于某些数据的监听回调</t>
-    </r>
-  </si>
-  <si>
     <t>vue-router</t>
   </si>
   <si>
     <t>动态路由</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vue-router </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有哪几种导航钩子</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1188,10 +952,6 @@
     <t>权限</t>
   </si>
   <si>
-    <t>token只存在客户端cookie,后端AES加密+解密+验证,每一次成功访问action都会刷新token包括过期时间
-interceptors，token存在localStorage</t>
-  </si>
-  <si>
     <t>vue父子传值</t>
   </si>
   <si>
@@ -1226,12 +986,6 @@
     <t>hash</t>
   </si>
   <si>
-    <t>websocket</t>
-  </si>
-  <si>
-    <t>cors</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1261,71 +1015,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器端对于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CORS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的支持，主要就是通过设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Access-Control-Allow-Origin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来进行的。如果浏览器检测到相应的设置，就可以允许</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ajax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行跨域的访问</t>
-    </r>
-  </si>
-  <si>
     <t>js数据类型</t>
   </si>
   <si>
@@ -1440,11 +1129,6 @@
     <t>为什么在 Vue3.0 采用了 Proxy,抛弃了 Object.defineProperty？</t>
   </si>
   <si>
-    <t xml:space="preserve">Object.defineProperty 只能劫持对象的属性,因此我们需要对每个对象的每个属性进行遍历。Vue 2.x 里,是通过 递归 + 遍历 data 对象来实现对数据的监控的,如果属性值也是对象那么需要深度遍历,显然如果能劫持一个完整的对象是才是更好的选择。  
-  Proxy 可以劫持整个对象,并返回一个新的对象。Proxy 不仅可以代理对象,还可以代理数组。还可以代理动态增加的属性。
-</t>
-  </si>
-  <si>
     <t>数据量大怎么优化</t>
   </si>
   <si>
@@ -1457,13 +1141,7 @@
     <t>如何在vue项目中实现按需加载</t>
   </si>
   <si>
-    <t>通过import(*)语句来控制加载时机，webpack内置了对于import(*)的解析，会将import(*)中引入的模块作为一个新的入口在生成一个chunk。 当代码执行到import(*)语句时，会去加载Chunk对应生成的文件。import()会返回一个Promise对象，所以为了让浏览器支持，需要事先注入Promise polyfill。</t>
-  </si>
-  <si>
     <t>v-for时为什么不建议用index索引</t>
-  </si>
-  <si>
-    <t>当以index为索引时，如果在中间插入一条新数据，原数据插入点后的项没变化但index会递增，在虚拟dom比较新旧差异时，diff算法发现本来后几项数据也有变化，也要重新渲染，就失去了虚拟dom上的性能优势，如果用每条数据对象的某个具有唯一性的id时，即时中间插入新的数据，后面的key没有变化得到了复用，也就利用了虚拟dom的优势</t>
   </si>
   <si>
     <t>对象的深拷贝浅拷贝</t>
@@ -1686,54 +1364,7 @@
     <t>为什么需要Virtual DOM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重绘,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
-其次,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Marker Felt"/>
-        <family val="1"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
-最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
-    </r>
-  </si>
-  <si>
     <t>vue路由切换，各页面的生命周期是怎样的</t>
-  </si>
-  <si>
-    <t>进入A页开始
-A-beforeCreate
-A-created
-A-beforeMount
-A-mounted
-B-beforeCreate  (开始切换B页)
-B-created
-B-beforeMount
-A-beforeDestroy
-A-destroyed
-B-mounted
-重点理解：mounted是实例被挂载后调用，所以在B页即将挂载时，A页挂载被清除(被销毁)</t>
   </si>
   <si>
     <t>vue中data数据为什么return</t>
@@ -1815,23 +1446,11 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>filter 返回符合过滤条件的部分数组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>some 只要有任意一个元素满足条件，返回 true ,否则返回 false</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>every 必须全部元素满足条件，返回true，否则返回 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>forEach 总是返回undefined</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>map 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2035,26 +1654,6 @@
       </rPr>
       <t>缺点：value是function或undefined 不能拷贝</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>let obj1 = {
-  arr: [
-    {
-      prop: 1,
-    },
-    {
-      prop: 2,
-    },
-  ],
-};
-function copy(obj) {
-  var newObj = obj instanceof Array &amp;&amp; [] || {};
-  for(let key in obj) {
-    newObj[key] = obj[key] instanceof Object &amp;&amp; copy(obj[key]) || obj[key];  
-  }
-  return newObj;
-}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2087,6 +1686,440 @@
     <t>var a = {a: 1, b: [2,5]};
 var b = {a: 2, b: [5,2]};
 console.log(JSON.stringify(a) == JSON.stringify(b));</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>new 模拟实现</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原型式继承
+function createObj(origin) {
+  function F(){}
+  F.prototype = origin;
+  return new F();
+}
+var parent = {
+  name: 'kevin',
+  friends: ['yeio', 'ko']
+};
+var child1 = createObj(parent);
+var child2 = createObj(parent);
+child1.name = 'iqq';
+console.log(child1.hasOwnProperty('name'));
+console.log(child2.hasOwnProperty('name'));
+console.log(child2.name);
+child1.friends.push('Devin');
+console.log(child1.friends, child2.friends);
+createObj 模拟Object.create实现，将传入的参数作为创建的对象的原型.
+缺点：引用类型的属性会被所有子例共享.
+注意：修改child1.name的值，child2.name 未改变，并不是表示独立的值，而是child1.name 创建了子例上的属性，并未改变原型上的name属性 </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">寄生组合继承
+function object(origin) {
+  function F(){}
+  F.prototype = origin;
+  return new F();
+}
+function prototype(child, parent) {
+  var prototype = object(parent.prototype);
+  prototype.constructor = child;
+  child.prototype = prototype;
+}
+function Parent(name) {
+  this.name = name;
+}
+Parent.prototype.getName = function() {
+  console.log(this.name);
+}
+function Child(name, age) {
+  Parent.call(this, name);
+  this.age = age;
+}
+var child1 = prototype(Child, Parent);
+var child2 = prototype(Child, Parent);
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数组的方法</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach 循环,迭代总是返回undefined</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter 过滤器 返回符合过滤条件的部分数组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 映射 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串模板</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>解构赋值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>for-of</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>promise</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>let、const</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforecreate : 可以在这加个loading事件，在加载实例时触发
+created : 初始化完成时的事件写在这里，如在这结束loading事件，异步请求也适宜在这里调用
+ 挂载元素，获取到DOM节点 updated : 如果对数据统一处理，在这里写上相应函数
+可以做一个确认停止事件的确认框 nextTick : 更新数据后立即操作dom!</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心函数diff（h，pach）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在写v-for的时候，都需要给元素加上一个key属性
+2. key的主要作用就是用来提高渲染性能的！
+3.key属性可以避免数据混乱的情况出现 （如果元素中包含了有临时数据的元素，如果不用key就会产生数据混乱）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vue-router </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有哪几种导航钩子</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>postmessage</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器端对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CORS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的支持，主要就是通过设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access-Control-Allow-Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来进行的。如果浏览器检测到相应的设置，就可以允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ajax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行跨域的访问</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>cors</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过import(*)语句来控制加载时机，webpack内置了对于import(*)的解析，会将import(*)中引入的模块作为一个新的入口在生成一个chunk。 当代码执行到import(*)语句时，会去加载Chunk对应生成的文件。import()会返回一个Promise对象，所以为了让浏览器支持，需要事先注入Promise polyfill。</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>当以index为索引时，如果在中间插入一条新数据，原数据插入点后的项没变化但index会递增，在虚拟dom比较新旧差异时，diff算法发现本来后几项数据也有变化，也要重新渲染，就失去了虚拟dom上的性能优势，如果用每条数据对象的某个具有唯一性的id时，即时中间插入新的数据，后面的key没有变化得到了复用，也就利用了虚拟dom的优势</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">computed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖其它属性值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> computed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值有缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有它依赖的属性值发生改变</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">watch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侦听器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多的是「观察」的作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无缓存性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于某些数据的监听回调</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器输入url回车后都发生什么</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>get和post区别</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+可以访问构造函数的属性
+可以访问构造函数原型的属性
+1. 创建一个对象
+2.
+ </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Object.defineProperty 只能劫持对象的属性,因此我们需要对每个对象的每个属性进行遍历。Vue 2.x 里,是通过 递归 + 遍历 data 对象来实现对数据的监控的,如果属性值也是对象那么需要深度遍历,显然如果能劫持一个完整的对象是才是更好的选择。  
+  Proxy 可以劫持整个对象,并返回一个新的对象。Proxy 不仅可以代理对象,还可以代理数组。还可以代理动态增加的属性。
+</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2109,6 +2142,19 @@
 缺点：
 1. 不能继承到构造函数原型上的方法，只能继承到定义在构造函数的方法，每次实例都要创建一遍方法.
 </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>token只存在客户端cookie,后端AES加密+解密+验证,每一次成功访问action都会刷新token包括过期时间
+interceptors，token存在localStorage</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景（background-clip、background-origin、background-size和background-break）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐变</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2142,7 +2188,141 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>new 模拟实现</t>
+    <t xml:space="preserve">
+1.查找当前是否存在缓存，比较是否过期.
+2.DNS解析，URL对应的IP
+3.根据IP建立TCP连接(三次握手)
+4.HTTP发起请求
+5.服务端处理请求，浏览器接受HTTP响应
+6.渲染页面，解析HTML,建立DOM树
+7.解析css,建立CSSOM树
+8.结合DOM树和CSSOM树，生成渲染树.
+9.关闭TCP连接(四次挥手)
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+shift：
+删除数组的第一项，并返回该项，原数组第一项被删除.
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>unshift:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.get把请求的数据放在url上，用?开始参数，用&amp;分割各参数
+2.post把请求数据放在request body中
+3.get提交的数据最大是2k,post理论上没有限制.
+4.get产生一个TCP数据包,浏览器会把http header和data一并发出，服务器响应200.
+5.post产生两个TCP数据包（firefox一个),浏览器先发送http header，服务端响应100后，浏览器再发送data,服务端响应200.
+6.get在浏览器回退是无害的，post会再次提交请求
+7.get产生的url可以被保存书签,post不可以
+8.get请求会被浏览器缓存,post不会,除非手动设置.
+9.get请求只能进行url编码，post支持多种编码.
+10.get请求参数会被完整保存在浏览器历史记录里，post中的参数不会被保留
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">push:
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>let obj1 = {
+  arr: [
+    {
+      prop: 1,
+    },
+    {
+      prop: 2,
+    },
+  ],
+};
+function copy(obj) {
+  var newObj = obj instanceof Array &amp;&amp; [] || {};
+  for(let key in obj) {
+    newObj[key] = obj[key] instanceof Object &amp;&amp; copy(obj[key]) || obj[key];  
+  }
+  return newObj;
+}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>es6 class super作用</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>super(); 作为函数调用时
+代表父类的构造函数，es6要求，子类的构造函数必须执行一次super函数，虽然代表了父类的构造函数，但是返回的是子类的实例，即super内部this指向子类实例，因此相当于 父类.prototype.constructor.call(this),只有调用super之后才可以使用this关键字，因为子类实例的创建是基于父类实例，只有super方法才能调用父类实例</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+使用super的时候，必须显式指定是作为函数、还是作为对象使用，否则会报错。</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>super作为对象时
+在普通方法中，指向父类的原型对象，相当于指向父类.prototype上，在静态方法中，指向父类,在子类普通函数中调用父类方法时，方法内部的this指向当前的子类实例，相当于 super.父类方法.call(this).
+用在静态方法中时，这时super指向父类，而不是父类的原型.在子类的静态方法中通过super调用父类的方法时，方法内部的this指向当前的子类，而不是子类的实例，</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首先,我们都知道在前端性能优化的一个秘诀就是尽可能少地操作DOM,不仅仅是DOM相对较慢,更因为频繁变动DOM会造成浏览器的回流或者重绘,这些都是性能的杀手,因此我们需要这一层抽象,在patch过程中尽可能地一次性将差异更新到DOM中,这样保证了DOM不会出现性能很差的情况.
+其次,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Marker Felt"/>
+        <family val="1"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
+最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入A页开始
+A-beforeCreate
+A-created
+A-beforeMount
+A-mounted
+B-beforeCreate  (开始切换B页)
+B-created
+B-beforeMount
+A-beforeDestroy
+A-destroyed
+B-mounted
+重点理解：mounted是实例被挂载后调用，所以在B页即将挂载时，A页挂载被清除(被销毁)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2343,12 +2523,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2357,7 +2546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2450,6 +2639,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2886,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G67"/>
+  <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2899,7 +3091,7 @@
     <col min="3" max="3" width="40.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="39" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.1640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -2924,85 +3116,85 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17">
       <c r="B5" s="29"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="72" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17">
       <c r="B7" s="29"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14">
       <c r="B9" s="29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -3019,10 +3211,10 @@
     </row>
     <row r="11" spans="2:7" ht="14">
       <c r="B11" s="29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -3039,10 +3231,10 @@
     </row>
     <row r="13" spans="2:7" ht="17">
       <c r="B13" s="29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3052,7 +3244,7 @@
     <row r="14" spans="2:7" ht="17">
       <c r="B14" s="29"/>
       <c r="C14" s="26" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3061,10 +3253,10 @@
     </row>
     <row r="15" spans="2:7" ht="95" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -3073,101 +3265,101 @@
     </row>
     <row r="16" spans="2:7" ht="51">
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="47" customHeight="1">
       <c r="B17" s="29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="51">
       <c r="B18" s="29"/>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="64" customHeight="1">
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="81" customHeight="1">
       <c r="B20" s="29"/>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="81" customHeight="1">
       <c r="B21" s="29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="130" customHeight="1">
       <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="180" customHeight="1"/>
     <row r="26" spans="2:7" ht="14">
       <c r="B26" s="29" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3185,10 +3377,10 @@
     </row>
     <row r="28" spans="2:7" ht="57" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -3197,117 +3389,117 @@
     </row>
     <row r="29" spans="2:7" ht="43" customHeight="1">
       <c r="B29" s="29" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="58" customHeight="1">
       <c r="B30" s="30"/>
       <c r="C30" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="17">
       <c r="B31" s="29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="96" customHeight="1">
       <c r="B32" s="29"/>
       <c r="E32" s="6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="17">
       <c r="B33" s="29" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="34">
       <c r="B34" s="29"/>
       <c r="C34" s="11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="54" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="126" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -3316,21 +3508,21 @@
     </row>
     <row r="37" spans="2:7" ht="42">
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -3339,10 +3531,10 @@
     </row>
     <row r="39" spans="2:7" ht="63">
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -3351,62 +3543,62 @@
     </row>
     <row r="40" spans="2:7" ht="17">
       <c r="B40" s="29" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="24">
       <c r="B41" s="29"/>
       <c r="C41" s="26"/>
       <c r="F41" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="17">
       <c r="B42" s="29"/>
       <c r="C42" s="26" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="340">
       <c r="B43" s="29"/>
       <c r="C43" s="26"/>
       <c r="D43" s="15" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="14">
       <c r="B44" s="29" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -3423,48 +3615,48 @@
     </row>
     <row r="46" spans="2:7" ht="17">
       <c r="B46" s="29" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="52">
       <c r="B47" s="29"/>
       <c r="C47" s="17" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="180">
       <c r="B48" s="29"/>
       <c r="C48" s="17" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="141" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3473,190 +3665,255 @@
     </row>
     <row r="50" spans="2:7" ht="221" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="D50" s="26"/>
     </row>
     <row r="51" spans="2:7" ht="85" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D51" s="26"/>
     </row>
     <row r="52" spans="2:7" ht="51">
       <c r="B52" s="28" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="102">
       <c r="B53" s="28"/>
       <c r="E53" s="22" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="26">
       <c r="B54" s="28"/>
       <c r="C54" s="21" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="60">
       <c r="B55" s="28"/>
       <c r="C55" s="23" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42">
       <c r="B56" s="19" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="187">
       <c r="B57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="51">
+      <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="68">
-      <c r="B58" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="51">
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="42">
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="409">
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>172</v>
+        <v>180</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="42">
       <c r="B62" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="85">
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="68">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="68">
       <c r="B66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="102">
+      <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="85">
+      <c r="B68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="221">
+      <c r="B69" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="408">
+      <c r="B70" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="2" t="s">
-        <v>173</v>
+      <c r="C70" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="238">
+      <c r="B71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/js-list.xlsx
+++ b/js-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
   <si>
     <t>es6新特性</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>用js模拟dom结构，dom操作非常昂贵，将dom比对放入js提高效率</t>
-  </si>
-  <si>
-    <t>v-for的key</t>
   </si>
   <si>
     <t>vue watch和computed</t>
@@ -1114,18 +1111,12 @@
     <t>JavaScript 数据类型检测</t>
   </si>
   <si>
-    <t>typeof</t>
-  </si>
-  <si>
     <t>instanceof</t>
   </si>
   <si>
     <t>constructor</t>
   </si>
   <si>
-    <t>Object.prototype.toString.call()</t>
-  </si>
-  <si>
     <t>为什么在 Vue3.0 采用了 Proxy,抛弃了 Object.defineProperty？</t>
   </si>
   <si>
@@ -1163,9 +1154,6 @@
   </si>
   <si>
     <t>const simpleClonePerson = {...person}</t>
-  </si>
-  <si>
-    <t>深拷贝</t>
   </si>
   <si>
     <t>利用json</t>
@@ -1370,16 +1358,7 @@
     <t>vue中data数据为什么return</t>
   </si>
   <si>
-    <t>因为在vue中每个组件都是个vue实例，data数据放在函数里return出去，会有函数作用域，保证了每个组件的data数据作用域是在当前组件，不会与其他组件的共享.</t>
-  </si>
-  <si>
     <t>若是行内元素, 给其父元素设置 text-align:center,即可实现行内元素水平居中.</t>
-  </si>
-  <si>
-    <t>若是块级元素, 该元素设置 margin:0 auto即可</t>
-  </si>
-  <si>
-    <t>若子元素包含 float:left 属性, 为了让子元素水平居中, 则可让父元素宽度设置为fit-content,并且配合margin, 作如下设置:</t>
   </si>
   <si>
     <t>使用flex 2012年版本布局, 可以轻松的实现水平居中, 子元素设置如下</t>
@@ -1424,10 +1403,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>我们在input标签里绑定keyup事件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>使用watch</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -1440,84 +1415,11 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">浅拷贝
-es6 展开运算符 (...) 可以在函数调用/数组构造时, 将数组表达式或者string在语法层面展开；还可以在构造字面量对象时, 将对象表达式按key-value的方式展开
-</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>some 只要有任意一个元素满足条件，返回 true ,否则返回 false</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>every 必须全部元素满足条件，返回true，否则返回 false</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浅拷贝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-slice 方法返回一个新的数组对象，这一对象是一个由 begin 和 end 决定的原数组的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浅拷贝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（包括 begin，不包括end）。如果该元素是个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对象引用 （不是实际的对象）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，slice 会拷贝这个对象引用到新的数组里。两个对象引用都引用了同一个对象。如果被引用的对象发生改变，则新的和原来的数组中的这个元素也会发生改变。元素的其他数据类型正常拷贝</t>
-    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -1614,11 +1516,6 @@
   </si>
   <si>
     <t>性能优化</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>深拷贝
-json.parse(json.stringify(arr))</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -1748,18 +1645,10 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>forEach 循环,迭代总是返回undefined</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>filter 过滤器 返回符合过滤条件的部分数组</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>map 映射 返回各元素是否满足条件的boolean 数组[true, false, undefined]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串模板</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -1784,20 +1673,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>beforecreate : 可以在这加个loading事件，在加载实例时触发
-created : 初始化完成时的事件写在这里，如在这结束loading事件，异步请求也适宜在这里调用
- 挂载元素，获取到DOM节点 updated : 如果对数据统一处理，在这里写上相应函数
-可以做一个确认停止事件的确认框 nextTick : 更新数据后立即操作dom!</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>核心函数diff（h，pach）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 在写v-for的时候，都需要给元素加上一个key属性
-2. key的主要作用就是用来提高渲染性能的！
-3.key属性可以避免数据混乱的情况出现 （如果元素中包含了有临时数据的元素，如果不用key就会产生数据混乱）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2096,15 +1972,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-可以访问构造函数的属性
-可以访问构造函数原型的属性
-1. 创建一个对象
-2.
- </t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>sort:</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2114,34 +1981,6 @@
   </si>
   <si>
     <t>splice:</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Object.defineProperty 只能劫持对象的属性,因此我们需要对每个对象的每个属性进行遍历。Vue 2.x 里,是通过 递归 + 遍历 data 对象来实现对数据的监控的,如果属性值也是对象那么需要深度遍历,显然如果能劫持一个完整的对象是才是更好的选择。  
-  Proxy 可以劫持整个对象,并返回一个新的对象。Proxy 不仅可以代理对象,还可以代理数组。还可以代理动态增加的属性。
-</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">借助构造函数
-function Parent() {
-  this.name = ['Dav', 'Li'];
-}
-Parent.prototype.getName = function() {
-  console.log(this.name);
-}
-function Child() {
-  Parent.call(this);
-}
-var child1 = new Child('Davio');
-var child2 = new Child('James');
-child1.getName();  //Error
-优点：
-1. 避免引用类型值被全部实例共享.
-2. Child时可以向Parent传参.
-缺点：
-1. 不能继承到构造函数原型上的方法，只能继承到定义在构造函数的方法，每次实例都要创建一遍方法.
-</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2189,20 +2028,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-1.查找当前是否存在缓存，比较是否过期.
-2.DNS解析，URL对应的IP
-3.根据IP建立TCP连接(三次握手)
-4.HTTP发起请求
-5.服务端处理请求，浏览器接受HTTP响应
-6.渲染页面，解析HTML,建立DOM树
-7.解析css,建立CSSOM树
-8.结合DOM树和CSSOM树，生成渲染树.
-9.关闭TCP连接(四次挥手)
-</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 shift：
 删除数组的第一项，并返回该项，原数组第一项被删除.
 </t>
@@ -2210,25 +2035,6 @@
   </si>
   <si>
     <t>unshift:</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop:</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.get把请求的数据放在url上，用?开始参数，用&amp;分割各参数
-2.post把请求数据放在request body中
-3.get提交的数据最大是2k,post理论上没有限制.
-4.get产生一个TCP数据包,浏览器会把http header和data一并发出，服务器响应200.
-5.post产生两个TCP数据包（firefox一个),浏览器先发送http header，服务端响应100后，浏览器再发送data,服务端响应200.
-6.get在浏览器回退是无害的，post会再次提交请求
-7.get产生的url可以被保存书签,post不可以
-8.get请求会被浏览器缓存,post不会,除非手动设置.
-9.get请求只能进行url编码，post支持多种编码.
-10.get请求参数会被完整保存在浏览器历史记录里，post中的参数不会被保留
-</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2261,11 +2067,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>super(); 作为函数调用时
-代表父类的构造函数，es6要求，子类的构造函数必须执行一次super函数，虽然代表了父类的构造函数，但是返回的是子类的实例，即super内部this指向子类实例，因此相当于 父类.prototype.constructor.call(this),只有调用super之后才可以使用this关键字，因为子类实例的创建是基于父类实例，只有super方法才能调用父类实例</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 使用super的时候，必须显式指定是作为函数、还是作为对象使用，否则会报错。</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -2308,6 +2109,88 @@
       <t>x0008_现代前端框架的一个基本要求就是无须手动操作DOM,一方面是因为手动操作DOM无法保证程序性能,多人协作的项目中如果review不严格,可能会有开发者写出性能较低的代码,另一方面更重要的是省略手动DOM操作可以大大提高开发效率.
 最后,也是Virtual DOM最初的目的,就是更好的跨平台,比如Node.js就没有DOM,如果想实现SSR(服务端渲染),那么一个方式就是借助Virtual DOM,因为Virtual DOM本身是JavaScript对象.</t>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.查找当前是否存在缓存，比较是否过期.
+2.DNS解析，URL对应的IP
+3.根据IP建立TCP连接(三次握手)
+4.HTTP发起请求
+5.服务端处理请求，浏览器接受HTTP响应
+6.渲染页面，解析HTML,建立DOM树
+7.解析css,建立CSSOM树
+8.结合DOM树和CSSOM树，生成渲染树.
+9.关闭TCP连接(四次挥手)
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件传递机制</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEventListener(type, handler, useCapture); 事件监听
+type: 触发事件类型
+handler: 事件处理函数
+useCapture: 事件是捕获还是冒泡
+默认值：false，在冒泡传递
+当为true时，事件使用捕获传递</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue-router 生命周期</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeEach 全局前置守卫,需要next()</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么一般在冒泡阶段, 而不是在捕获阶段注册监听?</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforecreate : 可以在这加个loading事件，在加载实例时触发
+created : 初始化完成时的事件写在这里，如在这结束loading事件，异步请求也适宜在这里调用
+ 挂载元素，获取到DOM节点 updated : 如果对数据统一处理，在这里写上相应函数
+可以做一个确认停止事件的确认框 nextTick : 更新数据后立即操作dom!</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅拷贝
+es6 展开运算符 (...) 可以在函数调用/数组构造时, 将数组表达式或者string在语法层面展开；还可以在构造字面量对象时, 将对象表达式按key-value的方式展开
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.get把请求的数据放在url上，用?开始参数，用&amp;分割各参数
+2.post把请求数据放在request body中
+3.get提交的数据最大是2k,post理论上没有限制.
+4.get产生一个TCP数据包,浏览器会把http header和data一并发出，服务器响应200.
+5.post产生两个TCP数据包（firefox一个),浏览器先发送http header，服务端响应100后，浏览器再发送data,服务端响应200.
+6.get在浏览器回退是无害的，post会再次提交请求
+7.get产生的url可以被保存书签,post不可以
+8.get请求会被浏览器缓存,post不会,除非手动设置.
+9.get请求只能进行url编码，post支持多种编码.
+10.get请求参数会被完整保存在浏览器历史记录里，post中的参数不会被保留
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>super(); 作为函数调用时
+代表父类的构造函数，es6要求，子类的构造函数必须执行一次super函数，虽然代表了父类的构造函数，但是返回的是子类的实例，即super内部this指向子类实例，因此相当于 父类.prototype.constructor.call(this),只有调用super之后才可以使用this关键字，因为子类实例的创建是基于父类实例，只有super方法才能调用父类实例</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件捕获阶段
+处于目标阶段
+事件冒泡阶段</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在input标签里绑定keyup事件</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2325,12 +2208,664 @@
 重点理解：mounted是实例被挂载后调用，所以在B页即将挂载时，A页挂载被清除(被销毁)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>若是块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>元素设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> margin:0 auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>即可</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>若子元素包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> float:left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>子元素水平居中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>父元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>宽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>度设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fit-content,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>并且配合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">margin, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>作如下设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+slice 方法返回一个新的数组对象，这一对象是一个由 begin 和 end 决定的原数组的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（包括 begin，不包括end）。如果该元素是个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象引用 （不是实际的对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，slice 会拷贝这个对象引用到新的数组里。两个对象引用都引用了同一个对象。如果被引用的对象发生改变，则新的和原来的数组中的这个元素也会发生改变。元素的其他数据类型正常拷贝</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">借助构造函数
+function Parent() {
+  this.name = ['Dav', 'Li'];
+}
+Parent.prototype.getName = function() {
+  console.log(this.name);
+}
+function Child() {
+  Parent.call(this);
+}
+var child1 = new Child('Davio');
+var child2 = new Child('James');
+child1.getName();  //Error
+优点：
+1. 避免引用类型值被全部实例共享.
+2. Child时可以向Parent传参.
+缺点：
+1. 不能继承到构造函数原型上的方法，只能继承到定义在构造函数的方法，每次实例都要创建一遍方法.
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+可以访问构造函数的属性
+可以访问构造函数原型的属性
+1. 创建一个对象
+2.
+// 第一版代码
+function objectFactory() {
+    var obj = new Object(),
+    Constructor = [].shift.call(arguments);
+    obj.__proto__ = Constructor.prototype;
+    Constructor.apply(obj, arguments);
+    return obj;
+};
+ </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object.prototype.toString.call() 返回字符串 "[object Array]"</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>用new Object() 的方式新建了一个对象 obj
+取出第一个参数，就是我们要传入的构造函数。此外因为 shift 会修改原数组，所以 arguments 会被去除第一个参数
+将 obj 的原型指向构造函数，这样 obj 就可以访问到构造函数原型中的属性
+使用 apply，改变构造函数 this 的指向到新建的对象，这样 obj 就可以访问到构造函数中的属性
+返回 obj</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop:</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+通过 var 声明的变量有初始值 undefined，而通过 let 声明的变量直到定义的代码被执行时才会初始化。在变量初始化前访问变量会导致 ReferenceError。
+Let a = 10;
+function k() {
+  console.log(a);  //在let声明a之前访问变量会导致ReferenceError.
+  let a = 20;
+}
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>let 临时死区</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+组件就是一个可复用的vue的实例。
+这也就意味着如果你的data是一个普通的对象，那么所有复用这个实例的组件都将引用同一份数据，这就造成了数据污染！
+这个时候如果我们将data封装成一个函数，我们在实例化组件的时候只是调用了这个函数生成的数据副本，这就避免了数据污染。
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof   typeof undefined =&gt; undefined</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+基本类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(null): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> String(null)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>基本类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(string / number / boolean / undefined) + function: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>直接使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> typeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>其余引用类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Array / Date / RegExp Error): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>后根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>[object XXX]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei TC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>行判</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lantinghei SC Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>断</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型检测</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，*，／，%，一律转成数值计算</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +:
+  数字 + 字符串 = 字符串， 运算顺序是从左到右
+  数字 + 对象， 优先调用对象的valueOf -&gt; toString
+  数字 + boolean/null = 数字
+  数字 + undefined == NaN</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Object.defineProperty 只能劫持对象的属性,因此我们需要对每个对象的每个属性进行遍历。Vue 2.x 里,是通过 递归 + 遍历 data 对象来实现对数据的监控的,如果属性值也是对象那么需要深度遍历,显然如果能劫持一个完整的对象是才是更好的选择。  
+  Proxy 可以劫持整个对象,并返回一个新的对象。Proxy 不仅可以代理对象,还可以代理数组。还可以代理动态增加的属性。
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 遍历数组，返回回调返回值组成的新数组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach 无法break，可以用try/catch中throw new Error来停止</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝
+json.parse(json.stringify(arr))</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2514,6 +3049,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lantinghei TC Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lantinghei SC Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Lantinghei TC Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Lantinghei SC Heavy"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2541,12 +3108,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2586,9 +3159,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,6 +3192,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2640,11 +3219,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2666,13 +3253,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50165</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1232535</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2224405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2708,13 +3295,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>17780</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1637030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2750,13 +3337,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>598805</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1927860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>2266950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3078,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I71"/>
+  <dimension ref="B3:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -3097,7 +3684,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3108,7 +3695,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="17">
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,35 +3703,35 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17">
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="72" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3154,17 +3741,17 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17">
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3190,746 +3777,794 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="14">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="2:7" ht="69" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="2:7" ht="14">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="46" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="17">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="2:7" ht="17">
-      <c r="B14" s="29"/>
-      <c r="C14" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" ht="95" customHeight="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" ht="51">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="47" customHeight="1">
+      <c r="B16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="51">
+      <c r="B17" s="31"/>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="64" customHeight="1">
+      <c r="B18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="81" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="81" customHeight="1">
+      <c r="B20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="130" customHeight="1">
+      <c r="B21" s="32"/>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="180" customHeight="1"/>
+    <row r="25" spans="2:7" ht="14">
+      <c r="B25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" ht="208" customHeight="1">
+      <c r="B26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" ht="57" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" ht="51">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="47" customHeight="1">
-      <c r="B17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="51">
-      <c r="B18" s="29"/>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:7" ht="43" customHeight="1">
+      <c r="B28" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="58" customHeight="1">
+      <c r="B29" s="32"/>
+      <c r="C29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="64" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="81" customHeight="1">
-      <c r="B20" s="29"/>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="81" customHeight="1">
-      <c r="B21" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="130" customHeight="1">
-      <c r="B22" s="30"/>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="180" customHeight="1"/>
-    <row r="26" spans="2:7" ht="14">
-      <c r="B26" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="2:7" ht="208" customHeight="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="2:7" ht="57" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="2:7" ht="43" customHeight="1">
-      <c r="B29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="58" customHeight="1">
-      <c r="B30" s="30"/>
-      <c r="C30" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17">
+      <c r="B30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="17">
-      <c r="B31" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="96" customHeight="1">
+      <c r="B31" s="31"/>
+      <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="96" customHeight="1">
-      <c r="B32" s="29"/>
-      <c r="E32" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17">
+      <c r="B32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="17">
-      <c r="B33" s="29" t="s">
+      <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="3" t="s">
+    </row>
+    <row r="33" spans="2:7" ht="34">
+      <c r="B33" s="31"/>
+      <c r="C33" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="34">
-      <c r="B34" s="29"/>
+      <c r="D33" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="143" customHeight="1">
+      <c r="B34" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="C34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="2:7" ht="102" customHeight="1">
+      <c r="B35" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="54" customHeight="1">
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="2:7" ht="54" customHeight="1">
+      <c r="B36" s="33"/>
+      <c r="C36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="126" customHeight="1">
+      <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="126" customHeight="1">
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="2:7" ht="42">
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C37" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="2:7" ht="42">
       <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="42">
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="2:7" ht="63">
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="2:7" ht="17">
+      <c r="B41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="2:7" ht="63">
-      <c r="B39" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="E41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="24">
+      <c r="B42" s="31"/>
+      <c r="C42" s="28"/>
+      <c r="F42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="17">
+      <c r="B43" s="31"/>
+      <c r="C43" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="340">
+      <c r="B44" s="31"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="2:7" ht="17">
-      <c r="B40" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="24">
-      <c r="B41" s="29"/>
-      <c r="C41" s="26"/>
-      <c r="F41" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="16" t="s">
+    </row>
+    <row r="45" spans="2:7" ht="14">
+      <c r="B45" s="31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="17">
-      <c r="B42" s="29"/>
-      <c r="C42" s="26" t="s">
+      <c r="C45" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="2:7" ht="70" customHeight="1">
+      <c r="B46" s="31"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="2:7" ht="17">
+      <c r="B47" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="C47" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="340">
-      <c r="B43" s="29"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="14">
-      <c r="B44" s="29" t="s">
+      <c r="D47" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="E47" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="2:7" ht="70" customHeight="1">
-      <c r="B45" s="29"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="2:7" ht="17">
-      <c r="B46" s="29" t="s">
+    </row>
+    <row r="48" spans="2:7" ht="52">
+      <c r="B48" s="31"/>
+      <c r="C48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="D48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="14" t="s">
+    </row>
+    <row r="49" spans="2:7" ht="180">
+      <c r="B49" s="31"/>
+      <c r="C49" s="16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="52">
-      <c r="B47" s="29"/>
-      <c r="C47" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E49" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="17" t="s">
+    </row>
+    <row r="50" spans="2:7" ht="141" customHeight="1">
+      <c r="B50" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="180">
-      <c r="B48" s="29"/>
-      <c r="C48" s="17" t="s">
+      <c r="C50" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="2:7" ht="221" customHeight="1">
+      <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="C51" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="2:7" ht="85" customHeight="1">
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="C52" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="2:7" ht="51">
+      <c r="B53" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="141" customHeight="1">
-      <c r="B49" s="2" t="s">
+      <c r="D53" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="2:7" ht="221" customHeight="1">
-      <c r="B50" s="2" t="s">
+      <c r="G53" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="102">
+      <c r="B54" s="30"/>
+      <c r="E54" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="26"/>
-    </row>
-    <row r="51" spans="2:7" ht="85" customHeight="1">
-      <c r="B51" s="2" t="s">
+      <c r="F54" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="26"/>
-    </row>
-    <row r="52" spans="2:7" ht="51">
-      <c r="B52" s="28" t="s">
+    </row>
+    <row r="55" spans="2:7" ht="26">
+      <c r="B55" s="30"/>
+      <c r="C55" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="60">
+      <c r="B56" s="30"/>
+      <c r="C56" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="42">
+      <c r="B57" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="187">
+      <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="102">
-      <c r="B53" s="28"/>
-      <c r="E53" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="26">
-      <c r="B54" s="28"/>
-      <c r="C54" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="60">
-      <c r="B55" s="28"/>
-      <c r="C55" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="42">
-      <c r="B56" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="187">
-      <c r="B57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="51">
-      <c r="B58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>148</v>
+      <c r="E58" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="51">
       <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="51">
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="42">
+      <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="409">
+      <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="42">
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="85">
+      <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="42">
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="409">
-      <c r="B61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="42">
-      <c r="B62" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="85">
-      <c r="B63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="102">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="68">
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="408">
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="85">
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="221">
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="85">
-      <c r="B68" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="3" t="s">
+    <row r="71" spans="2:9" ht="408">
+      <c r="B71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="238">
+      <c r="B72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="136">
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="C73" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I68" s="1" t="s">
+    </row>
+    <row r="74" spans="2:9" ht="42">
+      <c r="B74" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" ht="221">
-      <c r="B69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="408">
-      <c r="B70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="238">
-      <c r="B71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>190</v>
+      <c r="C74" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="84">
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="238">
+      <c r="B76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
@@ -3937,25 +4572,25 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="C44:G45"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="C45:G46"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
-    <hyperlink ref="E47" r:id="rId2"/>
+    <hyperlink ref="C48" r:id="rId1" tooltip="https://router.vuejs.org/zh-cn/advanced/lazy-loading.html"/>
+    <hyperlink ref="E48" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
